--- a/配置文档/地图相关/固定地图配置.xlsx
+++ b/配置文档/地图相关/固定地图配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15945" windowHeight="9195" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="21780" windowHeight="9195" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_MapFixedSet_固定地图图集 " sheetId="12" r:id="rId1"/>
@@ -356,7 +356,7 @@
 数据不想填就写 #BASEVALUE</t>
   </si>
   <si>
-    <t>边缘连接类型
+    <t>边缘类型
 0    0000  四周无本材料
 1    0001  下端有
 2    0010  左端有
@@ -1374,6 +1374,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1424,9 +1427,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1762,7 +1762,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1773,7 +1773,7 @@
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="1" ht="57" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1835,10 +1835,10 @@
       <c r="B5" s="32">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1849,10 +1849,10 @@
       <c r="B6" s="32">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1863,10 +1863,10 @@
       <c r="B7" s="32">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1877,10 +1877,10 @@
       <c r="B8" s="32">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>7</v>
       </c>
     </row>
@@ -1909,8 +1909,8 @@
   <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1927,7 +1927,7 @@
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="1" ht="171" spans="1:10">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1945,10 +1945,10 @@
       <c r="F1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="9" t="s">
@@ -2054,55 +2054,55 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" s="14" customFormat="1" spans="1:10">
-      <c r="A5" s="31">
-        <v>1</v>
-      </c>
-      <c r="B5" s="31">
-        <v>2</v>
-      </c>
-      <c r="C5" s="31" t="s">
+    <row r="5" s="15" customFormat="1" spans="1:10">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>3</v>
       </c>
-      <c r="E5" s="31">
-        <v>1</v>
-      </c>
-      <c r="F5" s="31">
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
         <v>13</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="31" t="b">
+      <c r="H5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="14" customFormat="1" spans="1:10">
-      <c r="A6" s="31">
-        <v>1</v>
-      </c>
-      <c r="B6" s="31">
+      <c r="J5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="15" customFormat="1" spans="1:10">
+      <c r="A6" s="14">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="21">
-        <v>2</v>
-      </c>
-      <c r="E6" s="31">
-        <v>1</v>
-      </c>
-      <c r="F6" s="31">
+      <c r="D6" s="22">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
         <v>19</v>
       </c>
       <c r="G6" s="32" t="s">
@@ -2111,30 +2111,30 @@
       <c r="H6" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="14" customFormat="1" spans="1:10">
-      <c r="A7" s="31">
-        <v>1</v>
-      </c>
-      <c r="B7" s="31">
+      <c r="J6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="15" customFormat="1" spans="1:10">
+      <c r="A7" s="14">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14">
         <v>6</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>3</v>
       </c>
-      <c r="E7" s="31">
-        <v>1</v>
-      </c>
-      <c r="F7" s="31">
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
         <v>13</v>
       </c>
       <c r="G7" s="32" t="s">
@@ -2143,14 +2143,14 @@
       <c r="H7" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="16" customFormat="1" spans="1:10">
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="17" customFormat="1" spans="1:10">
       <c r="A8" s="32">
         <v>1</v>
       </c>
@@ -2160,7 +2160,7 @@
       <c r="C8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>1</v>
       </c>
       <c r="E8" s="32">
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="16" customFormat="1" spans="1:10">
+    <row r="9" s="17" customFormat="1" spans="1:10">
       <c r="A9" s="32">
         <v>1</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="C9" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="17">
         <v>1</v>
       </c>
       <c r="E9" s="32">
@@ -2224,7 +2224,7 @@
       <c r="C10" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="17">
         <v>1</v>
       </c>
       <c r="E10" s="32">
@@ -2246,8 +2246,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="16" customFormat="1" spans="1:10">
-      <c r="A11" s="31">
+    <row r="11" s="17" customFormat="1" spans="1:10">
+      <c r="A11" s="14">
         <v>1</v>
       </c>
       <c r="B11" s="32">
@@ -2256,7 +2256,7 @@
       <c r="C11" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="17">
         <v>1</v>
       </c>
       <c r="E11" s="32">
@@ -2271,10 +2271,10 @@
       <c r="H11" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2320,7 +2320,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="99.75" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2332,7 +2332,7 @@
       <c r="D1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2388,17 +2388,17 @@
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="28">
-        <v>2</v>
-      </c>
-      <c r="B5" s="28">
-        <v>1</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="A5" s="29">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2426,7 +2426,7 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="24.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="17.8583333333333" style="16" customWidth="1"/>
+    <col min="5" max="5" width="17.8583333333333" style="17" customWidth="1"/>
     <col min="6" max="6" width="17.8583333333333" customWidth="1"/>
     <col min="7" max="7" width="29.2416666666667" customWidth="1"/>
     <col min="8" max="8" width="46.1916666666667" customWidth="1"/>
@@ -2434,13 +2434,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="142.5" spans="1:10">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -2458,10 +2458,10 @@
       <c r="H1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
       <c r="D2" s="12">
         <v>2</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="20">
         <v>2</v>
       </c>
       <c r="F2" s="11">
@@ -2574,7 +2574,7 @@
       <c r="D5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="3">
@@ -2689,35 +2689,35 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" s="14" customFormat="1" ht="14.25" spans="1:10">
+    <row r="9" s="15" customFormat="1" ht="14.25" spans="1:10">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="21">
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="20" t="b">
+      <c r="D9" s="21" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="21">
         <v>0</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="21">
         <v>0.5</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="15" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2725,25 +2725,25 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>6</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="20" t="b">
+      <c r="D10" s="21" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="22">
         <v>100</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="22">
         <v>0</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="22">
         <v>0</v>
       </c>
       <c r="I10" t="s">
@@ -2753,35 +2753,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" s="15" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A11" s="23">
-        <v>2</v>
-      </c>
-      <c r="B11" s="23">
+    <row r="11" s="16" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A11" s="24">
+        <v>2</v>
+      </c>
+      <c r="B11" s="24">
         <v>7</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="25" t="b">
+      <c r="D11" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="F11" s="25" t="s">
+      <c r="E11" s="26">
+        <v>1</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="24">
         <v>0</v>
       </c>
-      <c r="H11" s="23">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="H11" s="24">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="16" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2791,34 +2791,34 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" ht="14.25" spans="3:4">
-      <c r="C13" s="26"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="26"/>
+      <c r="C14" s="27"/>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="26"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" ht="14.25" spans="3:4">
-      <c r="C16" s="26"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="26"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="26"/>
+      <c r="C18" s="27"/>
     </row>
     <row r="19" ht="14.25" spans="3:4">
-      <c r="C19" s="26"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="26"/>
+      <c r="C20" s="27"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="26"/>
+      <c r="C21" s="27"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2835,10 +2835,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2931,18 +2931,278 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="14.25"/>
-    <row r="6" s="3" customFormat="1" ht="14.25"/>
-    <row r="7" s="3" customFormat="1" ht="14.25"/>
-    <row r="8" s="3" customFormat="1" ht="14.25"/>
-    <row r="9" s="3" customFormat="1" ht="14.25"/>
-    <row r="10" s="3" customFormat="1" ht="14.25"/>
-    <row r="11" s="3" customFormat="1" ht="14.25"/>
-    <row r="12" s="3" customFormat="1" ht="14.25"/>
-    <row r="13" s="3" customFormat="1" ht="14.25"/>
-    <row r="14" s="3" customFormat="1" ht="14.25"/>
-    <row r="15" s="3" customFormat="1" ht="14.25"/>
-    <row r="16" s="3" customFormat="1" ht="14.25"/>
+    <row r="5" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>13</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>14</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>15</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">

--- a/配置文档/地图相关/固定地图配置.xlsx
+++ b/配置文档/地图相关/固定地图配置.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21780" windowHeight="9195" firstSheet="3" activeTab="4"/>
+    <workbookView windowHeight="17655" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="cfg_MapFixedSet_固定地图图集 " sheetId="12" r:id="rId1"/>
-    <sheet name="cfg_MapFixedMaterial_固定地图用材料" sheetId="13" r:id="rId2"/>
-    <sheet name="cfg_GenerateFixedMap_固定地图配置" sheetId="11" r:id="rId3"/>
+    <sheet name="cfg_GenerateFixedMap_固定地图配置" sheetId="11" r:id="rId1"/>
+    <sheet name="cfg_MapFixedSet_固定地图图集 " sheetId="12" r:id="rId2"/>
+    <sheet name="cfg_MapFixedMaterial_固定地图用材料" sheetId="13" r:id="rId3"/>
     <sheet name="cfg_MapPassType_地图可通过类型" sheetId="9" r:id="rId4"/>
     <sheet name="cfg_MapEdge_地图边缘连接配置" sheetId="10" r:id="rId5"/>
-    <sheet name="数据类型" sheetId="8" r:id="rId6"/>
+    <sheet name="cfg_MapWallShadow_地图墙壁阴影配置" sheetId="15" r:id="rId6"/>
+    <sheet name="数据类型" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="5">数据类型!#REF!</definedName>
-    <definedName name="数据类型_Sheet1" localSheetId="5">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="5">数据类型!$A$1:$E$38</definedName>
+    <definedName name="ExternalData_1" localSheetId="6">数据类型!#REF!</definedName>
+    <definedName name="数据类型_Sheet1" localSheetId="6">数据类型!#REF!</definedName>
+    <definedName name="连接" localSheetId="6">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,25 +46,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="247">
+  <si>
+    <t>该表只配置 固定副本地图
+数据不想填就写 #BASEVALUE</t>
+  </si>
+  <si>
+    <t>固定地图id</t>
+  </si>
+  <si>
+    <t>地图名称</t>
+  </si>
+  <si>
+    <t>地图描述</t>
+  </si>
+  <si>
+    <t>地图文件名称，可以带文件夹
+默认路径在这里 Remnant Afterglow\map\
+举例：1.map
+2.map
+key/3.map
+无法仅填写#BASEVALUE</t>
+  </si>
+  <si>
+    <t>字段导出设置</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>MapId</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MapDescribe</t>
+  </si>
+  <si>
+    <t>MapName</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>教程</t>
+  </si>
+  <si>
+    <t>测试的第一个地图</t>
+  </si>
+  <si>
+    <t>教程0-1.map</t>
+  </si>
   <si>
     <t>该表用于配置在地图编辑器中图集数据
 数据不想填就写 #BASEVALUE</t>
   </si>
   <si>
-    <t>固定地图编辑用图集id</t>
+    <t>固定地图编辑用图集id
+逻辑图集id默认为1</t>
   </si>
   <si>
     <t>编辑图集的名称</t>
   </si>
   <si>
-    <t>固定地图材料id列表</t>
-  </si>
-  <si>
-    <t>字段导出设置</t>
-  </si>
-  <si>
-    <t>字段名称</t>
+    <t>所在图层
+具体看 图层相关.xlsx的
+cfg_MapImageLayer_图像层配置表</t>
+  </si>
+  <si>
+    <t>固定地图材料id列表
+cfg_MapFixedMaterial_固定地图用材料</t>
   </si>
   <si>
     <t>EditImageSetId</t>
@@ -72,37 +131,105 @@
     <t>EditSetName</t>
   </si>
   <si>
+    <t>ImageLayer</t>
+  </si>
+  <si>
     <t>MaterialIdList</t>
   </si>
   <si>
-    <t>数据类型</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
     <t>&lt;INT&gt;</t>
   </si>
   <si>
-    <t>图集1</t>
-  </si>
-  <si>
-    <t>2|3|6</t>
-  </si>
-  <si>
-    <t>图集2</t>
-  </si>
-  <si>
-    <t>4|5</t>
-  </si>
-  <si>
-    <t>图集3</t>
-  </si>
-  <si>
-    <t>图集4</t>
+    <t>逻辑地块</t>
+  </si>
+  <si>
+    <t>1|2|3|4|5|6|100|50|51|52|53|54</t>
+  </si>
+  <si>
+    <t>地块层</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104|105|115|116|226|227|228|229|230|231|232|236|237|238|239|240|241|242|243|244
+</t>
+  </si>
+  <si>
+    <t>地块效果层</t>
+  </si>
+  <si>
+    <t>187|188|198|199|196|197|207|208</t>
+  </si>
+  <si>
+    <t>悬崖墙壁层</t>
+  </si>
+  <si>
+    <t>101|102|103|106|107|108|109|110|111|112|113|114|117|118|119|120|121|122|123|124|125|128|129|130|131|132|133|127|138|139|140|143|144|149|150|151|152|153|154|155|156|157|158|159|167|168|169|170|171|200|201|202|203|204|209|210|211|212|213|214|215|220|221|222|223|224|225</t>
+  </si>
+  <si>
+    <t>装饰一层</t>
+  </si>
+  <si>
+    <t>126|134|135|136|137|138|139|140|141|142|143|144|145|146|147|148|149|150|151|152|153|154|155|156|157|158|159|160|161|162|163|164|165|166|167|168|169|170|171|172|173|174|175|176|177|178|179|180|181|182|183|184|185|186|187|188|189|190|191|192|193|194|195|196|197|198|199|200|201|202|203|204|205|206|207|208|209|210|211|212|213|214|215|216|217|218|219|220|221|222|223|224|225|226|227|228|229|230|231|232</t>
+  </si>
+  <si>
+    <t>装饰二层</t>
+  </si>
+  <si>
+    <t>101|102|103|104|105|106|107|108|109|110|111|112|113|114|115|116|117|118|119|120|121|122|123|124|125|126|127|128|129|130|131|132|133|134|135|136|137|138|139|140|141|142|143|144|145|146|147|148|149|150|151|152|153|154|155|156|157|158|159|160|161|162|163|164|165|166|167|168|169|170|171|172|173|174|175|176|177|178|179|180|181|182|183|184|185|186|187|188|189|190|191|192|193|194|195|196|197|198|199|200|201|202|203|204|205|206|207|208|209|210|211|212|213|214|215|216|217|218|219|220|221|222|223|224|225|226|227|228|229|230|231|232</t>
+  </si>
+  <si>
+    <t>装饰三层</t>
+  </si>
+  <si>
+    <t>地图资源</t>
+  </si>
+  <si>
+    <t>233|234|235</t>
+  </si>
+  <si>
+    <t>场景阴影</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10001
+|10002
+|10003
+|10004
+|10005
+|10006
+|10007
+|10008
+|10009
+|10010
+|10011
+|10012
+|10013
+|10014
+|10015
+|10016
+|10017
+|10018
+|10019
+|10020
+|10021
+|10022
+|10023
+|10024
+|10025
+|10026
+|10027
+|10028
+|10029
+|10030
+|10031|10032|10033|10034|10035|10036
+</t>
+  </si>
+  <si>
+    <t>高层装饰一层</t>
+  </si>
+  <si>
+    <t>高层装饰二层</t>
+  </si>
+  <si>
+    <t>高层装饰三层</t>
   </si>
   <si>
     <t>该表只配置 地图生成用到的材料，
@@ -110,7 +237,8 @@
 数据不想填就写 #BASEVALUE</t>
   </si>
   <si>
-    <t>地图生成用材料id</t>
+    <t>地图生成用材料id
+不能为0</t>
   </si>
   <si>
     <t>地图生成用材料名称</t>
@@ -188,67 +316,139 @@
     <t>FLOAT</t>
   </si>
   <si>
+    <t>地面</t>
+  </si>
+  <si>
+    <t>(0,-10,-10,10,-10,10,10,-10,10)</t>
+  </si>
+  <si>
+    <t>#BASEVALUE</t>
+  </si>
+  <si>
     <t>墙壁</t>
   </si>
   <si>
-    <t>(0,-10,-10,10,-10,10,10,-10,10)</t>
-  </si>
-  <si>
-    <t>#BASEVALUE</t>
-  </si>
-  <si>
-    <t>水流</t>
-  </si>
-  <si>
     <t>悬崖</t>
   </si>
   <si>
-    <t>数字2</t>
-  </si>
-  <si>
-    <t>数字3</t>
-  </si>
-  <si>
-    <t>空地</t>
-  </si>
-  <si>
-    <t>深层工厂地板</t>
-  </si>
-  <si>
-    <t>该表只配置 固定副本地图
-数据不想填就写 #BASEVALUE</t>
-  </si>
-  <si>
-    <t>固定地图id</t>
-  </si>
-  <si>
-    <t>地图名称</t>
-  </si>
-  <si>
-    <t>地图描述</t>
-  </si>
-  <si>
-    <t>地图文件名称，可以带文件夹
-默认路径在这里 Remnant Afterglow\map\
-举例：1.json
-2.json
-key/3.json
-无法仅填写#BASEVALUE</t>
-  </si>
-  <si>
-    <t>MapId</t>
-  </si>
-  <si>
-    <t>MapName</t>
-  </si>
-  <si>
-    <t>MapDescribe</t>
-  </si>
-  <si>
-    <t>MapPath</t>
-  </si>
-  <si>
-    <t>测试固定地图</t>
+    <t>不可建造地面</t>
+  </si>
+  <si>
+    <t>沼泽</t>
+  </si>
+  <si>
+    <t>熔岩</t>
+  </si>
+  <si>
+    <t>边缘</t>
+  </si>
+  <si>
+    <t>废料资源地块</t>
+  </si>
+  <si>
+    <t>万能齿轮资源地块</t>
+  </si>
+  <si>
+    <t>怨灵水晶资源地块</t>
+  </si>
+  <si>
+    <t>次元溶剂资源地块</t>
+  </si>
+  <si>
+    <t>地面道路</t>
+  </si>
+  <si>
+    <t>警戒线左上</t>
+  </si>
+  <si>
+    <t>警戒线上</t>
+  </si>
+  <si>
+    <t>警戒线右上</t>
+  </si>
+  <si>
+    <t>处理器墙壁左上</t>
+  </si>
+  <si>
+    <t>处理器墙壁上</t>
+  </si>
+  <si>
+    <t>处理器墙壁右上</t>
+  </si>
+  <si>
+    <t>外墙左上</t>
+  </si>
+  <si>
+    <t>外墙上</t>
+  </si>
+  <si>
+    <t>外墙右上</t>
+  </si>
+  <si>
+    <t>警戒线左</t>
+  </si>
+  <si>
+    <t>警戒线中</t>
+  </si>
+  <si>
+    <t>警戒线右</t>
+  </si>
+  <si>
+    <t>处理器墙壁左</t>
+  </si>
+  <si>
+    <t>处理器墙壁中</t>
+  </si>
+  <si>
+    <t>处理器墙壁右</t>
+  </si>
+  <si>
+    <t>外墙左</t>
+  </si>
+  <si>
+    <t>外墙中</t>
+  </si>
+  <si>
+    <t>外墙右</t>
+  </si>
+  <si>
+    <t>警戒线左下</t>
+  </si>
+  <si>
+    <t>警戒线中下</t>
+  </si>
+  <si>
+    <t>警戒线右下</t>
+  </si>
+  <si>
+    <t>处理器墙壁左下</t>
+  </si>
+  <si>
+    <t>处理器墙壁下</t>
+  </si>
+  <si>
+    <t>处理器墙壁右下</t>
+  </si>
+  <si>
+    <t>外墙左下</t>
+  </si>
+  <si>
+    <t>外墙下</t>
+  </si>
+  <si>
+    <t>外墙右下</t>
+  </si>
+  <si>
+    <t>万能齿轮</t>
+  </si>
+  <si>
+    <t>怨灵水晶资</t>
+  </si>
+  <si>
+    <t>次元溶剂</t>
+  </si>
+  <si>
+    <t>阴影</t>
   </si>
   <si>
     <t>第一行 为备注
@@ -267,10 +467,10 @@
     <t>可通过名称</t>
   </si>
   <si>
-    <t>可通过性
-是否可以通行
-寻路时先判断是否可通行
-再判断后面的参数</t>
+    <t>是否可建造</t>
+  </si>
+  <si>
+    <t>是否可通行</t>
   </si>
   <si>
     <t>可攻击类型
@@ -281,6 +481,10 @@
     <t>通过代价
 寻路计算时，
 通过该地形的代价</t>
+  </si>
+  <si>
+    <t>周围地块通行代价增益
+周围8个块代价进行增加或减少</t>
   </si>
   <si>
     <t>通过类型
@@ -303,6 +507,9 @@
     <t>PassTypeName</t>
   </si>
   <si>
+    <t>#IsBuild</t>
+  </si>
+  <si>
     <t>IsPass</t>
   </si>
   <si>
@@ -312,6 +519,9 @@
     <t>PassCost</t>
   </si>
   <si>
+    <t>#PassCostAdd</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -324,24 +534,42 @@
     <t>UnitInfluence</t>
   </si>
   <si>
-    <t>地面</t>
-  </si>
-  <si>
-    <t>沼泽</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>装饰用</t>
+  </si>
+  <si>
+    <t>不可建造 墙壁</t>
+  </si>
+  <si>
+    <t>不可建造 悬崖</t>
+  </si>
+  <si>
+    <t>不可建造 地面</t>
+  </si>
+  <si>
+    <t>禁止建造</t>
   </si>
   <si>
     <t>减少攻击速度25%</t>
   </si>
   <si>
-    <t>熔岩</t>
-  </si>
-  <si>
     <t>持续对没有抗火标签的建筑造成伤害</t>
   </si>
   <si>
     <t>持续对没有抗火标签的单位造成伤害</t>
   </si>
   <si>
+    <t>禁止通过</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
     <t>资源</t>
   </si>
   <si>
@@ -349,11 +577,17 @@
   </si>
   <si>
     <t>杀死陆军和爬行单位</t>
+  </si>
+  <si>
+    <t>时空加速场</t>
   </si>
   <si>
     <t>该配置表用于保存 地图边缘连接相关图块
 相当于相同的材料，只是绘制上的不同，不改变数据
 数据不想填就写 #BASEVALUE</t>
+  </si>
+  <si>
+    <t>地图生成用材料id</t>
   </si>
   <si>
     <t>边缘类型
@@ -384,6 +618,13 @@
     <t>EdgeName</t>
   </si>
   <si>
+    <t>该配置表用于配置地图墙壁阴影数据
+数据不想填就写 #BASEVALUE</t>
+  </si>
+  <si>
+    <t>地图墙壁id</t>
+  </si>
+  <si>
     <t>数据类型编号</t>
   </si>
   <si>
@@ -411,9 +652,6 @@
     <t>SHORT</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
   </si>
   <si>
@@ -541,9 +779,6 @@
   </si>
   <si>
     <t>语言id 是语言配置的id</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>POINT</t>
@@ -890,13 +1125,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,7 +1566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1398,6 +1633,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1413,14 +1651,8 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1431,7 +1663,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1759,36 +2000,154 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="7" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="99.75" spans="1:5">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:5">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="35">
+        <v>2</v>
+      </c>
+      <c r="B5" s="35">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
+      <formula1>数据类型!$B$2:$B$56</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="43.375" customWidth="1"/>
     <col min="2" max="2" width="24.2166666666667" customWidth="1"/>
     <col min="3" max="4" width="31.55" customWidth="1"/>
+    <col min="5" max="5" width="42.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="57" spans="1:4">
+    <row r="1" s="9" customFormat="1" ht="57" spans="1:5">
       <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" s="12" customFormat="1" ht="14.25" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" s="12" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -1797,104 +2156,282 @@
         <v>2</v>
       </c>
       <c r="D2" s="12">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" ht="17" customHeight="1" spans="1:4">
+    <row r="3" s="12" customFormat="1" ht="17" customHeight="1" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" s="12" customFormat="1" ht="14.25" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="12" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="32">
-        <v>1</v>
-      </c>
-      <c r="B5" s="32">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="32">
-        <v>1</v>
-      </c>
-      <c r="B6" s="32">
+      <c r="E4" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="31">
+        <v>1</v>
+      </c>
+      <c r="B5" s="31">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:5">
+      <c r="A6" s="31">
+        <v>1</v>
+      </c>
+      <c r="B6" s="31">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="32">
-        <v>1</v>
-      </c>
-      <c r="B7" s="32">
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="408" customHeight="1" spans="1:5">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="32">
-        <v>1</v>
-      </c>
-      <c r="B8" s="32">
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="94.5" spans="1:5">
+      <c r="A8" s="31">
+        <v>1</v>
+      </c>
+      <c r="B8" s="31">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="135" spans="1:5">
+      <c r="A9" s="31">
+        <v>1</v>
+      </c>
+      <c r="B9" s="31">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="175.5" spans="1:5">
+      <c r="A10" s="31">
+        <v>1</v>
+      </c>
+      <c r="B10" s="31">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="175.5" spans="1:5">
+      <c r="A11" s="31">
+        <v>1</v>
+      </c>
+      <c r="B11" s="31">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:6">
+      <c r="A12" s="31">
+        <v>1</v>
+      </c>
+      <c r="B12" s="31">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" ht="409.5" spans="1:6">
+      <c r="A13" s="31">
+        <v>1</v>
+      </c>
+      <c r="B13" s="31">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:6">
+      <c r="A14" s="31">
+        <v>1</v>
+      </c>
+      <c r="B14" s="31">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" ht="175.5" spans="1:5">
+      <c r="A15" s="31">
+        <v>1</v>
+      </c>
+      <c r="B15" s="31">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3">
+        <v>11</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" ht="175.5" spans="1:5">
+      <c r="A16" s="31">
+        <v>1</v>
+      </c>
+      <c r="B16" s="31">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3">
+        <v>12</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -1904,13 +2441,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1928,39 +2465,39 @@
   <sheetData>
     <row r="1" s="9" customFormat="1" ht="171" spans="1:10">
       <c r="A1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" ht="14.25" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -1992,66 +2529,66 @@
     </row>
     <row r="3" s="12" customFormat="1" ht="17" customHeight="1" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" s="12" customFormat="1" ht="14.25" spans="1:10">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" spans="1:10">
@@ -2059,28 +2596,28 @@
         <v>1</v>
       </c>
       <c r="B5" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="22">
-        <v>3</v>
+        <v>70</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1</v>
       </c>
       <c r="E5" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5" s="14">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="H5" s="14" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J5" s="14">
         <v>1</v>
@@ -2091,28 +2628,28 @@
         <v>1</v>
       </c>
       <c r="B6" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="22">
+        <v>73</v>
+      </c>
+      <c r="D6" s="23">
         <v>2</v>
       </c>
       <c r="E6" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F6" s="14">
-        <v>19</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="32" t="b">
+        <v>2</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="31" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J6" s="14">
         <v>1</v>
@@ -2123,126 +2660,126 @@
         <v>1</v>
       </c>
       <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="23">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14">
+        <v>8</v>
+      </c>
+      <c r="F7" s="14">
+        <v>3</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="17" customFormat="1" spans="1:10">
+      <c r="A8" s="31">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14">
+        <v>4</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="23">
+        <v>4</v>
+      </c>
+      <c r="E8" s="14">
+        <v>8</v>
+      </c>
+      <c r="F8" s="14">
+        <v>4</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="17" customFormat="1" spans="1:10">
+      <c r="A9" s="31">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14">
+        <v>5</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="23">
+        <v>5</v>
+      </c>
+      <c r="E9" s="14">
+        <v>8</v>
+      </c>
+      <c r="F9" s="14">
+        <v>5</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="31">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14">
         <v>6</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="22">
-        <v>3</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14">
-        <v>13</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="17" customFormat="1" spans="1:10">
-      <c r="A8" s="32">
-        <v>1</v>
-      </c>
-      <c r="B8" s="32">
-        <v>4</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" s="32">
-        <v>2</v>
-      </c>
-      <c r="F8" s="32">
-        <v>21</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="17" customFormat="1" spans="1:10">
-      <c r="A9" s="32">
-        <v>1</v>
-      </c>
-      <c r="B9" s="32">
-        <v>5</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="17">
-        <v>1</v>
-      </c>
-      <c r="E9" s="32">
-        <v>2</v>
-      </c>
-      <c r="F9" s="32">
-        <v>22</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="32">
-        <v>1</v>
-      </c>
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="32">
+      <c r="C10" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="23">
         <v>6</v>
       </c>
-      <c r="F10" s="32">
-        <v>1</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="32">
+      <c r="E10" s="14">
+        <v>8</v>
+      </c>
+      <c r="F10" s="14">
+        <v>6</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="31">
         <v>1</v>
       </c>
     </row>
@@ -2250,44 +2787,5953 @@
       <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="14">
+        <v>100</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="23">
         <v>7</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="E11" s="14">
+        <v>8</v>
+      </c>
+      <c r="F11" s="14">
+        <v>7</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="17" customFormat="1" spans="1:10">
+      <c r="A12" s="14">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14">
         <v>50</v>
       </c>
-      <c r="D11" s="17">
-        <v>1</v>
-      </c>
-      <c r="E11" s="32">
+      <c r="C12" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14">
+        <v>8</v>
+      </c>
+      <c r="F12" s="23">
+        <v>9</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="17" customFormat="1" spans="1:10">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="14">
+        <v>51</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
+        <v>8</v>
+      </c>
+      <c r="F13" s="17">
+        <v>10</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="17" customFormat="1" spans="1:10">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14">
+        <v>52</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="23">
+        <v>11</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="17" customFormat="1" spans="1:10">
+      <c r="A15" s="14">
+        <v>1</v>
+      </c>
+      <c r="B15" s="14">
+        <v>53</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14">
+        <v>8</v>
+      </c>
+      <c r="F15" s="17">
+        <v>12</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="15" customFormat="1" spans="1:10">
+      <c r="A16" s="14">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14">
+        <v>54</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="23">
+        <v>8</v>
+      </c>
+      <c r="E16" s="14">
+        <v>8</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="14">
+        <v>1</v>
+      </c>
+      <c r="B17" s="14">
+        <v>101</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>9</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="14">
+        <v>1</v>
+      </c>
+      <c r="B18" s="14">
+        <v>102</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>9</v>
+      </c>
+      <c r="F18" s="17">
+        <v>2</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="14">
+        <v>1</v>
+      </c>
+      <c r="B19" s="14">
+        <v>103</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>9</v>
+      </c>
+      <c r="F19" s="17">
+        <v>3</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="14">
+        <v>1</v>
+      </c>
+      <c r="B20" s="14">
+        <v>104</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>9</v>
+      </c>
+      <c r="F20" s="17">
+        <v>4</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="14">
+        <v>1</v>
+      </c>
+      <c r="B21" s="14">
+        <v>105</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>9</v>
+      </c>
+      <c r="F21" s="17">
+        <v>5</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="14">
+        <v>1</v>
+      </c>
+      <c r="B22" s="14">
+        <v>106</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>9</v>
+      </c>
+      <c r="F22" s="17">
+        <v>6</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="14">
+        <v>1</v>
+      </c>
+      <c r="B23" s="14">
+        <v>107</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>9</v>
+      </c>
+      <c r="F23" s="17">
         <v>7</v>
       </c>
-      <c r="F11" s="32">
-        <v>1</v>
-      </c>
-      <c r="G11" s="32" t="s">
+      <c r="G23" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="14">
+        <v>1</v>
+      </c>
+      <c r="B24" s="14">
+        <v>108</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>9</v>
+      </c>
+      <c r="F24" s="17">
+        <v>8</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="14">
+        <v>1</v>
+      </c>
+      <c r="B25" s="14">
+        <v>109</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>9</v>
+      </c>
+      <c r="F25" s="17">
+        <v>9</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="14">
+        <v>1</v>
+      </c>
+      <c r="B26" s="14">
+        <v>110</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <v>9</v>
+      </c>
+      <c r="F26" s="17">
+        <v>10</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="14">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14">
+        <v>111</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>9</v>
+      </c>
+      <c r="F27" s="17">
+        <v>11</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="14">
+        <v>1</v>
+      </c>
+      <c r="B28" s="14">
+        <v>112</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <v>9</v>
+      </c>
+      <c r="F28" s="17">
+        <v>12</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="14">
+        <v>1</v>
+      </c>
+      <c r="B29" s="14">
+        <v>113</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <v>9</v>
+      </c>
+      <c r="F29" s="17">
+        <v>13</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="14">
+        <v>1</v>
+      </c>
+      <c r="B30" s="14">
+        <v>114</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <v>9</v>
+      </c>
+      <c r="F30" s="17">
+        <v>14</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="14">
+        <v>1</v>
+      </c>
+      <c r="B31" s="14">
+        <v>115</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>9</v>
+      </c>
+      <c r="F31" s="17">
+        <v>15</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="14">
+        <v>1</v>
+      </c>
+      <c r="B32" s="14">
+        <v>116</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0</v>
+      </c>
+      <c r="E32" s="17">
+        <v>9</v>
+      </c>
+      <c r="F32" s="17">
+        <v>16</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="14">
+        <v>1</v>
+      </c>
+      <c r="B33" s="14">
+        <v>117</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0</v>
+      </c>
+      <c r="E33" s="17">
+        <v>9</v>
+      </c>
+      <c r="F33" s="17">
+        <v>17</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="14">
+        <v>1</v>
+      </c>
+      <c r="B34" s="14">
+        <v>118</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0</v>
+      </c>
+      <c r="E34" s="17">
+        <v>9</v>
+      </c>
+      <c r="F34" s="17">
+        <v>18</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="14">
+        <v>1</v>
+      </c>
+      <c r="B35" s="14">
+        <v>119</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="17">
+        <v>0</v>
+      </c>
+      <c r="E35" s="17">
+        <v>9</v>
+      </c>
+      <c r="F35" s="17">
+        <v>19</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="14">
+        <v>1</v>
+      </c>
+      <c r="B36" s="14">
+        <v>120</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="17">
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
+        <v>9</v>
+      </c>
+      <c r="F36" s="17">
+        <v>20</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J36" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="14">
+        <v>1</v>
+      </c>
+      <c r="B37" s="14">
+        <v>121</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0</v>
+      </c>
+      <c r="E37" s="17">
+        <v>9</v>
+      </c>
+      <c r="F37" s="17">
+        <v>21</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="14">
+        <v>1</v>
+      </c>
+      <c r="B38" s="14">
+        <v>122</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="17">
+        <v>0</v>
+      </c>
+      <c r="E38" s="17">
+        <v>9</v>
+      </c>
+      <c r="F38" s="17">
+        <v>22</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="14">
+        <v>1</v>
+      </c>
+      <c r="B39" s="14">
+        <v>123</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="17">
+        <v>0</v>
+      </c>
+      <c r="E39" s="17">
+        <v>9</v>
+      </c>
+      <c r="F39" s="17">
+        <v>23</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="14">
+        <v>1</v>
+      </c>
+      <c r="B40" s="14">
+        <v>124</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="17">
+        <v>0</v>
+      </c>
+      <c r="E40" s="17">
+        <v>9</v>
+      </c>
+      <c r="F40" s="17">
+        <v>24</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="14">
+        <v>1</v>
+      </c>
+      <c r="B41" s="14">
+        <v>125</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="17">
+        <v>0</v>
+      </c>
+      <c r="E41" s="17">
+        <v>9</v>
+      </c>
+      <c r="F41" s="17">
+        <v>25</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="14">
+        <v>1</v>
+      </c>
+      <c r="B42" s="14">
+        <v>126</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="17">
+        <v>0</v>
+      </c>
+      <c r="E42" s="17">
+        <v>9</v>
+      </c>
+      <c r="F42" s="17">
+        <v>26</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="14">
+        <v>1</v>
+      </c>
+      <c r="B43" s="14">
+        <v>127</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="17">
+        <v>0</v>
+      </c>
+      <c r="E43" s="17">
+        <v>9</v>
+      </c>
+      <c r="F43" s="17">
+        <v>27</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="14">
+        <v>1</v>
+      </c>
+      <c r="B44" s="14">
+        <v>128</v>
+      </c>
+      <c r="C44" s="17">
+        <v>1</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0</v>
+      </c>
+      <c r="E44" s="17">
+        <v>9</v>
+      </c>
+      <c r="F44" s="17">
+        <v>28</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J44" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="14">
+        <v>1</v>
+      </c>
+      <c r="B45" s="14">
+        <v>129</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
+      <c r="D45" s="17">
+        <v>0</v>
+      </c>
+      <c r="E45" s="17">
+        <v>9</v>
+      </c>
+      <c r="F45" s="17">
+        <v>29</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="14">
+        <v>1</v>
+      </c>
+      <c r="B46" s="14">
+        <v>130</v>
+      </c>
+      <c r="C46" s="17">
+        <v>1</v>
+      </c>
+      <c r="D46" s="17">
+        <v>0</v>
+      </c>
+      <c r="E46" s="17">
+        <v>9</v>
+      </c>
+      <c r="F46" s="17">
+        <v>30</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="14">
+        <v>1</v>
+      </c>
+      <c r="B47" s="14">
+        <v>131</v>
+      </c>
+      <c r="C47" s="17">
+        <v>1</v>
+      </c>
+      <c r="D47" s="17">
+        <v>0</v>
+      </c>
+      <c r="E47" s="17">
+        <v>9</v>
+      </c>
+      <c r="F47" s="17">
+        <v>31</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="14">
+        <v>1</v>
+      </c>
+      <c r="B48" s="14">
+        <v>132</v>
+      </c>
+      <c r="C48" s="17">
+        <v>1</v>
+      </c>
+      <c r="D48" s="17">
+        <v>0</v>
+      </c>
+      <c r="E48" s="17">
+        <v>9</v>
+      </c>
+      <c r="F48" s="17">
+        <v>32</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J48" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="14">
+        <v>1</v>
+      </c>
+      <c r="B49" s="14">
+        <v>133</v>
+      </c>
+      <c r="C49" s="17">
+        <v>1</v>
+      </c>
+      <c r="D49" s="17">
+        <v>0</v>
+      </c>
+      <c r="E49" s="17">
+        <v>9</v>
+      </c>
+      <c r="F49" s="17">
+        <v>33</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J49" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="14">
+        <v>1</v>
+      </c>
+      <c r="B50" s="14">
+        <v>134</v>
+      </c>
+      <c r="C50" s="17">
+        <v>1</v>
+      </c>
+      <c r="D50" s="17">
+        <v>0</v>
+      </c>
+      <c r="E50" s="17">
+        <v>9</v>
+      </c>
+      <c r="F50" s="17">
+        <v>34</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="14">
+        <v>1</v>
+      </c>
+      <c r="B51" s="14">
+        <v>135</v>
+      </c>
+      <c r="C51" s="17">
+        <v>1</v>
+      </c>
+      <c r="D51" s="17">
+        <v>0</v>
+      </c>
+      <c r="E51" s="17">
+        <v>9</v>
+      </c>
+      <c r="F51" s="17">
+        <v>35</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J51" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="14">
+        <v>1</v>
+      </c>
+      <c r="B52" s="14">
+        <v>136</v>
+      </c>
+      <c r="C52" s="17">
+        <v>1</v>
+      </c>
+      <c r="D52" s="17">
+        <v>0</v>
+      </c>
+      <c r="E52" s="17">
+        <v>9</v>
+      </c>
+      <c r="F52" s="17">
+        <v>36</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J52" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="14">
+        <v>1</v>
+      </c>
+      <c r="B53" s="14">
+        <v>137</v>
+      </c>
+      <c r="C53" s="17">
+        <v>1</v>
+      </c>
+      <c r="D53" s="17">
+        <v>0</v>
+      </c>
+      <c r="E53" s="17">
+        <v>9</v>
+      </c>
+      <c r="F53" s="17">
+        <v>37</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J53" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="14">
+        <v>1</v>
+      </c>
+      <c r="B54" s="14">
+        <v>138</v>
+      </c>
+      <c r="C54" s="17">
+        <v>1</v>
+      </c>
+      <c r="D54" s="17">
+        <v>0</v>
+      </c>
+      <c r="E54" s="17">
+        <v>9</v>
+      </c>
+      <c r="F54" s="17">
+        <v>38</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J54" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="14">
+        <v>1</v>
+      </c>
+      <c r="B55" s="14">
+        <v>139</v>
+      </c>
+      <c r="C55" s="17">
+        <v>1</v>
+      </c>
+      <c r="D55" s="17">
+        <v>0</v>
+      </c>
+      <c r="E55" s="17">
+        <v>9</v>
+      </c>
+      <c r="F55" s="17">
+        <v>39</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J55" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="14">
+        <v>1</v>
+      </c>
+      <c r="B56" s="14">
+        <v>140</v>
+      </c>
+      <c r="C56" s="17">
+        <v>1</v>
+      </c>
+      <c r="D56" s="17">
+        <v>0</v>
+      </c>
+      <c r="E56" s="17">
+        <v>9</v>
+      </c>
+      <c r="F56" s="17">
+        <v>40</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J56" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="14">
+        <v>1</v>
+      </c>
+      <c r="B57" s="14">
+        <v>141</v>
+      </c>
+      <c r="C57" s="17">
+        <v>1</v>
+      </c>
+      <c r="D57" s="17">
+        <v>0</v>
+      </c>
+      <c r="E57" s="17">
+        <v>9</v>
+      </c>
+      <c r="F57" s="17">
+        <v>41</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="14">
+        <v>1</v>
+      </c>
+      <c r="B58" s="14">
+        <v>142</v>
+      </c>
+      <c r="C58" s="17">
+        <v>1</v>
+      </c>
+      <c r="D58" s="17">
+        <v>0</v>
+      </c>
+      <c r="E58" s="17">
+        <v>9</v>
+      </c>
+      <c r="F58" s="17">
+        <v>42</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J58" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="14">
+        <v>1</v>
+      </c>
+      <c r="B59" s="14">
+        <v>143</v>
+      </c>
+      <c r="C59" s="17">
+        <v>1</v>
+      </c>
+      <c r="D59" s="17">
+        <v>0</v>
+      </c>
+      <c r="E59" s="17">
+        <v>9</v>
+      </c>
+      <c r="F59" s="17">
         <v>43</v>
       </c>
-      <c r="H11" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14" t="s">
+      <c r="G59" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J59" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="14">
+        <v>1</v>
+      </c>
+      <c r="B60" s="14">
+        <v>144</v>
+      </c>
+      <c r="C60" s="17">
+        <v>1</v>
+      </c>
+      <c r="D60" s="17">
+        <v>0</v>
+      </c>
+      <c r="E60" s="17">
+        <v>9</v>
+      </c>
+      <c r="F60" s="17">
         <v>44</v>
       </c>
-      <c r="J11" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
+      <c r="G60" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J60" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="14">
+        <v>1</v>
+      </c>
+      <c r="B61" s="14">
+        <v>145</v>
+      </c>
+      <c r="C61" s="17">
+        <v>1</v>
+      </c>
+      <c r="D61" s="17">
+        <v>0</v>
+      </c>
+      <c r="E61" s="17">
+        <v>9</v>
+      </c>
+      <c r="F61" s="17">
+        <v>45</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J61" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="14">
+        <v>1</v>
+      </c>
+      <c r="B62" s="14">
+        <v>146</v>
+      </c>
+      <c r="C62" s="17">
+        <v>1</v>
+      </c>
+      <c r="D62" s="17">
+        <v>0</v>
+      </c>
+      <c r="E62" s="17">
+        <v>9</v>
+      </c>
+      <c r="F62" s="17">
+        <v>46</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J62" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="14">
+        <v>1</v>
+      </c>
+      <c r="B63" s="14">
+        <v>147</v>
+      </c>
+      <c r="C63" s="17">
+        <v>1</v>
+      </c>
+      <c r="D63" s="17">
+        <v>0</v>
+      </c>
+      <c r="E63" s="17">
+        <v>9</v>
+      </c>
+      <c r="F63" s="17">
+        <v>47</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J63" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="14">
+        <v>1</v>
+      </c>
+      <c r="B64" s="14">
+        <v>148</v>
+      </c>
+      <c r="C64" s="17">
+        <v>1</v>
+      </c>
+      <c r="D64" s="17">
+        <v>0</v>
+      </c>
+      <c r="E64" s="17">
+        <v>9</v>
+      </c>
+      <c r="F64" s="17">
+        <v>48</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J64" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="14">
+        <v>1</v>
+      </c>
+      <c r="B65" s="14">
+        <v>149</v>
+      </c>
+      <c r="C65" s="17">
+        <v>1</v>
+      </c>
+      <c r="D65" s="17">
+        <v>0</v>
+      </c>
+      <c r="E65" s="17">
+        <v>9</v>
+      </c>
+      <c r="F65" s="17">
+        <v>49</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J65" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="14">
+        <v>1</v>
+      </c>
+      <c r="B66" s="14">
+        <v>150</v>
+      </c>
+      <c r="C66" s="17">
+        <v>1</v>
+      </c>
+      <c r="D66" s="17">
+        <v>0</v>
+      </c>
+      <c r="E66" s="17">
+        <v>9</v>
+      </c>
+      <c r="F66" s="17">
+        <v>50</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J66" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="14">
+        <v>1</v>
+      </c>
+      <c r="B67" s="14">
+        <v>151</v>
+      </c>
+      <c r="C67" s="17">
+        <v>1</v>
+      </c>
+      <c r="D67" s="17">
+        <v>0</v>
+      </c>
+      <c r="E67" s="17">
+        <v>9</v>
+      </c>
+      <c r="F67" s="17">
+        <v>51</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J67" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="14">
+        <v>1</v>
+      </c>
+      <c r="B68" s="14">
+        <v>152</v>
+      </c>
+      <c r="C68" s="17">
+        <v>1</v>
+      </c>
+      <c r="D68" s="17">
+        <v>0</v>
+      </c>
+      <c r="E68" s="17">
+        <v>9</v>
+      </c>
+      <c r="F68" s="17">
+        <v>52</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J68" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="14">
+        <v>1</v>
+      </c>
+      <c r="B69" s="14">
+        <v>153</v>
+      </c>
+      <c r="C69" s="17">
+        <v>1</v>
+      </c>
+      <c r="D69" s="17">
+        <v>0</v>
+      </c>
+      <c r="E69" s="17">
+        <v>9</v>
+      </c>
+      <c r="F69" s="17">
+        <v>53</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H69" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J69" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="14">
+        <v>1</v>
+      </c>
+      <c r="B70" s="14">
+        <v>154</v>
+      </c>
+      <c r="C70" s="17">
+        <v>1</v>
+      </c>
+      <c r="D70" s="17">
+        <v>0</v>
+      </c>
+      <c r="E70" s="17">
+        <v>9</v>
+      </c>
+      <c r="F70" s="17">
+        <v>54</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J70" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="14">
+        <v>1</v>
+      </c>
+      <c r="B71" s="14">
+        <v>155</v>
+      </c>
+      <c r="C71" s="17">
+        <v>1</v>
+      </c>
+      <c r="D71" s="17">
+        <v>0</v>
+      </c>
+      <c r="E71" s="17">
+        <v>9</v>
+      </c>
+      <c r="F71" s="17">
+        <v>55</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H71" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J71" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="14">
+        <v>1</v>
+      </c>
+      <c r="B72" s="14">
+        <v>156</v>
+      </c>
+      <c r="C72" s="17">
+        <v>1</v>
+      </c>
+      <c r="D72" s="17">
+        <v>0</v>
+      </c>
+      <c r="E72" s="17">
+        <v>9</v>
+      </c>
+      <c r="F72" s="17">
+        <v>56</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J72" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="14">
+        <v>1</v>
+      </c>
+      <c r="B73" s="14">
+        <v>157</v>
+      </c>
+      <c r="C73" s="17">
+        <v>1</v>
+      </c>
+      <c r="D73" s="17">
+        <v>0</v>
+      </c>
+      <c r="E73" s="17">
+        <v>9</v>
+      </c>
+      <c r="F73" s="17">
+        <v>57</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J73" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="14">
+        <v>1</v>
+      </c>
+      <c r="B74" s="14">
+        <v>158</v>
+      </c>
+      <c r="C74" s="17">
+        <v>1</v>
+      </c>
+      <c r="D74" s="17">
+        <v>0</v>
+      </c>
+      <c r="E74" s="17">
+        <v>9</v>
+      </c>
+      <c r="F74" s="17">
+        <v>58</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J74" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="14">
+        <v>1</v>
+      </c>
+      <c r="B75" s="14">
+        <v>159</v>
+      </c>
+      <c r="C75" s="17">
+        <v>1</v>
+      </c>
+      <c r="D75" s="17">
+        <v>0</v>
+      </c>
+      <c r="E75" s="17">
+        <v>9</v>
+      </c>
+      <c r="F75" s="17">
+        <v>59</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J75" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="14">
+        <v>1</v>
+      </c>
+      <c r="B76" s="14">
+        <v>160</v>
+      </c>
+      <c r="C76" s="17">
+        <v>1</v>
+      </c>
+      <c r="D76" s="17">
+        <v>0</v>
+      </c>
+      <c r="E76" s="17">
+        <v>9</v>
+      </c>
+      <c r="F76" s="17">
+        <v>60</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J76" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="14">
+        <v>1</v>
+      </c>
+      <c r="B77" s="14">
+        <v>161</v>
+      </c>
+      <c r="C77" s="17">
+        <v>1</v>
+      </c>
+      <c r="D77" s="17">
+        <v>0</v>
+      </c>
+      <c r="E77" s="17">
+        <v>9</v>
+      </c>
+      <c r="F77" s="17">
+        <v>61</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J77" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="14">
+        <v>1</v>
+      </c>
+      <c r="B78" s="14">
+        <v>162</v>
+      </c>
+      <c r="C78" s="17">
+        <v>1</v>
+      </c>
+      <c r="D78" s="17">
+        <v>0</v>
+      </c>
+      <c r="E78" s="17">
+        <v>9</v>
+      </c>
+      <c r="F78" s="17">
+        <v>62</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H78" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J78" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="14">
+        <v>1</v>
+      </c>
+      <c r="B79" s="14">
+        <v>163</v>
+      </c>
+      <c r="C79" s="17">
+        <v>1</v>
+      </c>
+      <c r="D79" s="17">
+        <v>0</v>
+      </c>
+      <c r="E79" s="17">
+        <v>9</v>
+      </c>
+      <c r="F79" s="17">
+        <v>63</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J79" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="14">
+        <v>1</v>
+      </c>
+      <c r="B80" s="14">
+        <v>164</v>
+      </c>
+      <c r="C80" s="17">
+        <v>1</v>
+      </c>
+      <c r="D80" s="17">
+        <v>0</v>
+      </c>
+      <c r="E80" s="17">
+        <v>9</v>
+      </c>
+      <c r="F80" s="17">
+        <v>64</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H80" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J80" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="14">
+        <v>1</v>
+      </c>
+      <c r="B81" s="14">
+        <v>165</v>
+      </c>
+      <c r="C81" s="17">
+        <v>1</v>
+      </c>
+      <c r="D81" s="17">
+        <v>0</v>
+      </c>
+      <c r="E81" s="17">
+        <v>9</v>
+      </c>
+      <c r="F81" s="17">
+        <v>65</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H81" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J81" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="14">
+        <v>1</v>
+      </c>
+      <c r="B82" s="14">
+        <v>166</v>
+      </c>
+      <c r="C82" s="17">
+        <v>1</v>
+      </c>
+      <c r="D82" s="17">
+        <v>0</v>
+      </c>
+      <c r="E82" s="17">
+        <v>9</v>
+      </c>
+      <c r="F82" s="17">
+        <v>66</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H82" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J82" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="14">
+        <v>1</v>
+      </c>
+      <c r="B83" s="14">
+        <v>167</v>
+      </c>
+      <c r="C83" s="17">
+        <v>1</v>
+      </c>
+      <c r="D83" s="17">
+        <v>0</v>
+      </c>
+      <c r="E83" s="17">
+        <v>9</v>
+      </c>
+      <c r="F83" s="17">
+        <v>67</v>
+      </c>
+      <c r="G83" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H83" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J83" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="14">
+        <v>1</v>
+      </c>
+      <c r="B84" s="14">
+        <v>168</v>
+      </c>
+      <c r="C84" s="17">
+        <v>1</v>
+      </c>
+      <c r="D84" s="17">
+        <v>0</v>
+      </c>
+      <c r="E84" s="17">
+        <v>9</v>
+      </c>
+      <c r="F84" s="17">
+        <v>68</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H84" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J84" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="14">
+        <v>1</v>
+      </c>
+      <c r="B85" s="14">
+        <v>169</v>
+      </c>
+      <c r="C85" s="17">
+        <v>1</v>
+      </c>
+      <c r="D85" s="17">
+        <v>0</v>
+      </c>
+      <c r="E85" s="17">
+        <v>9</v>
+      </c>
+      <c r="F85" s="17">
+        <v>69</v>
+      </c>
+      <c r="G85" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J85" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="14">
+        <v>1</v>
+      </c>
+      <c r="B86" s="14">
+        <v>170</v>
+      </c>
+      <c r="C86" s="17">
+        <v>1</v>
+      </c>
+      <c r="D86" s="17">
+        <v>0</v>
+      </c>
+      <c r="E86" s="17">
+        <v>9</v>
+      </c>
+      <c r="F86" s="17">
+        <v>70</v>
+      </c>
+      <c r="G86" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J86" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="14">
+        <v>1</v>
+      </c>
+      <c r="B87" s="14">
+        <v>171</v>
+      </c>
+      <c r="C87" s="17">
+        <v>1</v>
+      </c>
+      <c r="D87" s="17">
+        <v>0</v>
+      </c>
+      <c r="E87" s="17">
+        <v>9</v>
+      </c>
+      <c r="F87" s="17">
+        <v>71</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J87" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="14">
+        <v>1</v>
+      </c>
+      <c r="B88" s="14">
+        <v>172</v>
+      </c>
+      <c r="C88" s="17">
+        <v>1</v>
+      </c>
+      <c r="D88" s="17">
+        <v>0</v>
+      </c>
+      <c r="E88" s="17">
+        <v>9</v>
+      </c>
+      <c r="F88" s="17">
+        <v>72</v>
+      </c>
+      <c r="G88" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H88" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J88" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="14">
+        <v>1</v>
+      </c>
+      <c r="B89" s="14">
+        <v>173</v>
+      </c>
+      <c r="C89" s="17">
+        <v>1</v>
+      </c>
+      <c r="D89" s="17">
+        <v>0</v>
+      </c>
+      <c r="E89" s="17">
+        <v>9</v>
+      </c>
+      <c r="F89" s="17">
+        <v>73</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H89" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J89" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="14">
+        <v>1</v>
+      </c>
+      <c r="B90" s="14">
+        <v>174</v>
+      </c>
+      <c r="C90" s="17">
+        <v>1</v>
+      </c>
+      <c r="D90" s="17">
+        <v>0</v>
+      </c>
+      <c r="E90" s="17">
+        <v>9</v>
+      </c>
+      <c r="F90" s="17">
+        <v>74</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J90" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="14">
+        <v>1</v>
+      </c>
+      <c r="B91" s="14">
+        <v>175</v>
+      </c>
+      <c r="C91" s="17">
+        <v>1</v>
+      </c>
+      <c r="D91" s="17">
+        <v>0</v>
+      </c>
+      <c r="E91" s="17">
+        <v>9</v>
+      </c>
+      <c r="F91" s="17">
+        <v>75</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J91" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="14">
+        <v>1</v>
+      </c>
+      <c r="B92" s="14">
+        <v>176</v>
+      </c>
+      <c r="C92" s="17">
+        <v>1</v>
+      </c>
+      <c r="D92" s="17">
+        <v>0</v>
+      </c>
+      <c r="E92" s="17">
+        <v>9</v>
+      </c>
+      <c r="F92" s="17">
+        <v>76</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J92" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="14">
+        <v>1</v>
+      </c>
+      <c r="B93" s="14">
+        <v>177</v>
+      </c>
+      <c r="C93" s="17">
+        <v>1</v>
+      </c>
+      <c r="D93" s="17">
+        <v>0</v>
+      </c>
+      <c r="E93" s="17">
+        <v>9</v>
+      </c>
+      <c r="F93" s="17">
+        <v>77</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J93" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="14">
+        <v>1</v>
+      </c>
+      <c r="B94" s="14">
+        <v>178</v>
+      </c>
+      <c r="C94" s="17">
+        <v>1</v>
+      </c>
+      <c r="D94" s="17">
+        <v>0</v>
+      </c>
+      <c r="E94" s="17">
+        <v>9</v>
+      </c>
+      <c r="F94" s="17">
+        <v>78</v>
+      </c>
+      <c r="G94" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H94" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J94" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="14">
+        <v>1</v>
+      </c>
+      <c r="B95" s="14">
+        <v>179</v>
+      </c>
+      <c r="C95" s="17">
+        <v>1</v>
+      </c>
+      <c r="D95" s="17">
+        <v>0</v>
+      </c>
+      <c r="E95" s="17">
+        <v>9</v>
+      </c>
+      <c r="F95" s="17">
+        <v>79</v>
+      </c>
+      <c r="G95" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H95" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J95" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="14">
+        <v>1</v>
+      </c>
+      <c r="B96" s="14">
+        <v>180</v>
+      </c>
+      <c r="C96" s="17">
+        <v>1</v>
+      </c>
+      <c r="D96" s="17">
+        <v>0</v>
+      </c>
+      <c r="E96" s="17">
+        <v>9</v>
+      </c>
+      <c r="F96" s="17">
+        <v>80</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J96" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="14">
+        <v>1</v>
+      </c>
+      <c r="B97" s="14">
+        <v>181</v>
+      </c>
+      <c r="C97" s="17">
+        <v>1</v>
+      </c>
+      <c r="D97" s="17">
+        <v>0</v>
+      </c>
+      <c r="E97" s="17">
+        <v>9</v>
+      </c>
+      <c r="F97" s="17">
+        <v>81</v>
+      </c>
+      <c r="G97" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H97" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J97" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="14">
+        <v>1</v>
+      </c>
+      <c r="B98" s="14">
+        <v>182</v>
+      </c>
+      <c r="C98" s="17">
+        <v>1</v>
+      </c>
+      <c r="D98" s="17">
+        <v>0</v>
+      </c>
+      <c r="E98" s="17">
+        <v>9</v>
+      </c>
+      <c r="F98" s="17">
+        <v>82</v>
+      </c>
+      <c r="G98" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H98" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J98" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="14">
+        <v>1</v>
+      </c>
+      <c r="B99" s="14">
+        <v>183</v>
+      </c>
+      <c r="C99" s="17">
+        <v>1</v>
+      </c>
+      <c r="D99" s="17">
+        <v>0</v>
+      </c>
+      <c r="E99" s="17">
+        <v>9</v>
+      </c>
+      <c r="F99" s="17">
+        <v>83</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J99" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="14">
+        <v>1</v>
+      </c>
+      <c r="B100" s="14">
+        <v>184</v>
+      </c>
+      <c r="C100" s="17">
+        <v>1</v>
+      </c>
+      <c r="D100" s="17">
+        <v>0</v>
+      </c>
+      <c r="E100" s="17">
+        <v>9</v>
+      </c>
+      <c r="F100" s="17">
+        <v>84</v>
+      </c>
+      <c r="G100" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H100" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J100" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="14">
+        <v>1</v>
+      </c>
+      <c r="B101" s="14">
+        <v>185</v>
+      </c>
+      <c r="C101" s="17">
+        <v>1</v>
+      </c>
+      <c r="D101" s="17">
+        <v>0</v>
+      </c>
+      <c r="E101" s="17">
+        <v>9</v>
+      </c>
+      <c r="F101" s="17">
+        <v>85</v>
+      </c>
+      <c r="G101" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H101" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J101" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="14">
+        <v>1</v>
+      </c>
+      <c r="B102" s="14">
+        <v>186</v>
+      </c>
+      <c r="C102" s="17">
+        <v>1</v>
+      </c>
+      <c r="D102" s="17">
+        <v>0</v>
+      </c>
+      <c r="E102" s="17">
+        <v>9</v>
+      </c>
+      <c r="F102" s="17">
+        <v>86</v>
+      </c>
+      <c r="G102" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H102" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J102" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="14">
+        <v>1</v>
+      </c>
+      <c r="B103" s="14">
+        <v>187</v>
+      </c>
+      <c r="C103" s="17">
+        <v>1</v>
+      </c>
+      <c r="D103" s="17">
+        <v>0</v>
+      </c>
+      <c r="E103" s="17">
+        <v>9</v>
+      </c>
+      <c r="F103" s="17">
+        <v>87</v>
+      </c>
+      <c r="G103" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H103" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J103" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="14">
+        <v>1</v>
+      </c>
+      <c r="B104" s="14">
+        <v>188</v>
+      </c>
+      <c r="C104" s="17">
+        <v>1</v>
+      </c>
+      <c r="D104" s="17">
+        <v>0</v>
+      </c>
+      <c r="E104" s="17">
+        <v>9</v>
+      </c>
+      <c r="F104" s="17">
+        <v>88</v>
+      </c>
+      <c r="G104" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H104" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J104" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="14">
+        <v>1</v>
+      </c>
+      <c r="B105" s="14">
+        <v>189</v>
+      </c>
+      <c r="C105" s="17">
+        <v>1</v>
+      </c>
+      <c r="D105" s="17">
+        <v>0</v>
+      </c>
+      <c r="E105" s="17">
+        <v>9</v>
+      </c>
+      <c r="F105" s="17">
+        <v>89</v>
+      </c>
+      <c r="G105" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J105" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="14">
+        <v>1</v>
+      </c>
+      <c r="B106" s="14">
+        <v>190</v>
+      </c>
+      <c r="C106" s="17">
+        <v>1</v>
+      </c>
+      <c r="D106" s="17">
+        <v>0</v>
+      </c>
+      <c r="E106" s="17">
+        <v>9</v>
+      </c>
+      <c r="F106" s="17">
+        <v>90</v>
+      </c>
+      <c r="G106" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H106" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J106" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="14">
+        <v>1</v>
+      </c>
+      <c r="B107" s="14">
+        <v>191</v>
+      </c>
+      <c r="C107" s="17">
+        <v>1</v>
+      </c>
+      <c r="D107" s="17">
+        <v>0</v>
+      </c>
+      <c r="E107" s="17">
+        <v>9</v>
+      </c>
+      <c r="F107" s="17">
+        <v>91</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H107" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J107" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="14">
+        <v>1</v>
+      </c>
+      <c r="B108" s="14">
+        <v>192</v>
+      </c>
+      <c r="C108" s="17">
+        <v>1</v>
+      </c>
+      <c r="D108" s="17">
+        <v>0</v>
+      </c>
+      <c r="E108" s="17">
+        <v>9</v>
+      </c>
+      <c r="F108" s="17">
+        <v>92</v>
+      </c>
+      <c r="G108" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H108" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J108" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="14">
+        <v>1</v>
+      </c>
+      <c r="B109" s="14">
+        <v>193</v>
+      </c>
+      <c r="C109" s="17">
+        <v>1</v>
+      </c>
+      <c r="D109" s="17">
+        <v>0</v>
+      </c>
+      <c r="E109" s="17">
+        <v>9</v>
+      </c>
+      <c r="F109" s="17">
+        <v>93</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H109" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J109" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="14">
+        <v>1</v>
+      </c>
+      <c r="B110" s="14">
+        <v>194</v>
+      </c>
+      <c r="C110" s="17">
+        <v>1</v>
+      </c>
+      <c r="D110" s="17">
+        <v>0</v>
+      </c>
+      <c r="E110" s="17">
+        <v>9</v>
+      </c>
+      <c r="F110" s="17">
+        <v>94</v>
+      </c>
+      <c r="G110" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J110" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="14">
+        <v>1</v>
+      </c>
+      <c r="B111" s="14">
+        <v>195</v>
+      </c>
+      <c r="C111" s="17">
+        <v>1</v>
+      </c>
+      <c r="D111" s="17">
+        <v>0</v>
+      </c>
+      <c r="E111" s="17">
+        <v>9</v>
+      </c>
+      <c r="F111" s="17">
+        <v>95</v>
+      </c>
+      <c r="G111" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H111" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J111" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="14">
+        <v>1</v>
+      </c>
+      <c r="B112" s="14">
+        <v>196</v>
+      </c>
+      <c r="C112" s="17">
+        <v>1</v>
+      </c>
+      <c r="D112" s="17">
+        <v>0</v>
+      </c>
+      <c r="E112" s="17">
+        <v>9</v>
+      </c>
+      <c r="F112" s="17">
+        <v>96</v>
+      </c>
+      <c r="G112" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H112" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J112" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="14">
+        <v>1</v>
+      </c>
+      <c r="B113" s="14">
+        <v>197</v>
+      </c>
+      <c r="C113" s="17">
+        <v>1</v>
+      </c>
+      <c r="D113" s="17">
+        <v>0</v>
+      </c>
+      <c r="E113" s="17">
+        <v>9</v>
+      </c>
+      <c r="F113" s="17">
+        <v>97</v>
+      </c>
+      <c r="G113" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H113" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J113" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="14">
+        <v>1</v>
+      </c>
+      <c r="B114" s="14">
+        <v>198</v>
+      </c>
+      <c r="C114" s="17">
+        <v>1</v>
+      </c>
+      <c r="D114" s="17">
+        <v>0</v>
+      </c>
+      <c r="E114" s="17">
+        <v>9</v>
+      </c>
+      <c r="F114" s="17">
+        <v>98</v>
+      </c>
+      <c r="G114" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H114" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J114" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="14">
+        <v>1</v>
+      </c>
+      <c r="B115" s="14">
+        <v>199</v>
+      </c>
+      <c r="C115" s="17">
+        <v>1</v>
+      </c>
+      <c r="D115" s="17">
+        <v>0</v>
+      </c>
+      <c r="E115" s="17">
+        <v>9</v>
+      </c>
+      <c r="F115" s="17">
+        <v>99</v>
+      </c>
+      <c r="G115" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H115" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J115" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="14">
+        <v>1</v>
+      </c>
+      <c r="B116" s="14">
+        <v>200</v>
+      </c>
+      <c r="C116" s="17">
+        <v>1</v>
+      </c>
+      <c r="D116" s="17">
+        <v>0</v>
+      </c>
+      <c r="E116" s="17">
+        <v>9</v>
+      </c>
+      <c r="F116" s="17">
+        <v>100</v>
+      </c>
+      <c r="G116" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H116" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J116" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="14">
+        <v>1</v>
+      </c>
+      <c r="B117" s="14">
+        <v>201</v>
+      </c>
+      <c r="C117" s="17">
+        <v>1</v>
+      </c>
+      <c r="D117" s="17">
+        <v>0</v>
+      </c>
+      <c r="E117" s="17">
+        <v>9</v>
+      </c>
+      <c r="F117" s="17">
+        <v>101</v>
+      </c>
+      <c r="G117" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H117" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J117" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="14">
+        <v>1</v>
+      </c>
+      <c r="B118" s="14">
+        <v>202</v>
+      </c>
+      <c r="C118" s="17">
+        <v>1</v>
+      </c>
+      <c r="D118" s="17">
+        <v>0</v>
+      </c>
+      <c r="E118" s="17">
+        <v>9</v>
+      </c>
+      <c r="F118" s="17">
+        <v>102</v>
+      </c>
+      <c r="G118" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H118" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J118" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="14">
+        <v>1</v>
+      </c>
+      <c r="B119" s="14">
+        <v>203</v>
+      </c>
+      <c r="C119" s="17">
+        <v>1</v>
+      </c>
+      <c r="D119" s="17">
+        <v>0</v>
+      </c>
+      <c r="E119" s="17">
+        <v>9</v>
+      </c>
+      <c r="F119" s="17">
+        <v>103</v>
+      </c>
+      <c r="G119" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H119" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J119" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="14">
+        <v>1</v>
+      </c>
+      <c r="B120" s="14">
+        <v>204</v>
+      </c>
+      <c r="C120" s="17">
+        <v>1</v>
+      </c>
+      <c r="D120" s="17">
+        <v>0</v>
+      </c>
+      <c r="E120" s="17">
+        <v>9</v>
+      </c>
+      <c r="F120" s="17">
+        <v>104</v>
+      </c>
+      <c r="G120" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H120" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J120" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="14">
+        <v>1</v>
+      </c>
+      <c r="B121" s="14">
+        <v>205</v>
+      </c>
+      <c r="C121" s="17">
+        <v>1</v>
+      </c>
+      <c r="D121" s="17">
+        <v>0</v>
+      </c>
+      <c r="E121" s="17">
+        <v>9</v>
+      </c>
+      <c r="F121" s="17">
+        <v>105</v>
+      </c>
+      <c r="G121" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H121" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J121" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="14">
+        <v>1</v>
+      </c>
+      <c r="B122" s="14">
+        <v>206</v>
+      </c>
+      <c r="C122" s="17">
+        <v>1</v>
+      </c>
+      <c r="D122" s="17">
+        <v>0</v>
+      </c>
+      <c r="E122" s="17">
+        <v>9</v>
+      </c>
+      <c r="F122" s="17">
+        <v>106</v>
+      </c>
+      <c r="G122" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H122" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J122" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="14">
+        <v>1</v>
+      </c>
+      <c r="B123" s="14">
+        <v>207</v>
+      </c>
+      <c r="C123" s="17">
+        <v>1</v>
+      </c>
+      <c r="D123" s="17">
+        <v>0</v>
+      </c>
+      <c r="E123" s="17">
+        <v>9</v>
+      </c>
+      <c r="F123" s="17">
+        <v>107</v>
+      </c>
+      <c r="G123" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H123" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J123" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="14">
+        <v>1</v>
+      </c>
+      <c r="B124" s="14">
+        <v>208</v>
+      </c>
+      <c r="C124" s="17">
+        <v>1</v>
+      </c>
+      <c r="D124" s="17">
+        <v>0</v>
+      </c>
+      <c r="E124" s="17">
+        <v>9</v>
+      </c>
+      <c r="F124" s="17">
+        <v>108</v>
+      </c>
+      <c r="G124" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H124" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J124" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="14">
+        <v>1</v>
+      </c>
+      <c r="B125" s="14">
+        <v>209</v>
+      </c>
+      <c r="C125" s="17">
+        <v>1</v>
+      </c>
+      <c r="D125" s="17">
+        <v>0</v>
+      </c>
+      <c r="E125" s="17">
+        <v>9</v>
+      </c>
+      <c r="F125" s="17">
+        <v>109</v>
+      </c>
+      <c r="G125" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H125" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J125" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="14">
+        <v>1</v>
+      </c>
+      <c r="B126" s="14">
+        <v>210</v>
+      </c>
+      <c r="C126" s="17">
+        <v>1</v>
+      </c>
+      <c r="D126" s="17">
+        <v>0</v>
+      </c>
+      <c r="E126" s="17">
+        <v>9</v>
+      </c>
+      <c r="F126" s="17">
+        <v>110</v>
+      </c>
+      <c r="G126" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H126" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J126" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="14">
+        <v>1</v>
+      </c>
+      <c r="B127" s="14">
+        <v>211</v>
+      </c>
+      <c r="C127" s="17">
+        <v>1</v>
+      </c>
+      <c r="D127" s="17">
+        <v>0</v>
+      </c>
+      <c r="E127" s="17">
+        <v>9</v>
+      </c>
+      <c r="F127" s="17">
+        <v>111</v>
+      </c>
+      <c r="G127" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H127" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J127" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="14">
+        <v>1</v>
+      </c>
+      <c r="B128" s="14">
+        <v>212</v>
+      </c>
+      <c r="C128" s="17">
+        <v>1</v>
+      </c>
+      <c r="D128" s="17">
+        <v>0</v>
+      </c>
+      <c r="E128" s="17">
+        <v>9</v>
+      </c>
+      <c r="F128" s="17">
+        <v>112</v>
+      </c>
+      <c r="G128" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H128" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J128" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="14">
+        <v>1</v>
+      </c>
+      <c r="B129" s="14">
+        <v>213</v>
+      </c>
+      <c r="C129" s="17">
+        <v>1</v>
+      </c>
+      <c r="D129" s="17">
+        <v>0</v>
+      </c>
+      <c r="E129" s="17">
+        <v>9</v>
+      </c>
+      <c r="F129" s="17">
+        <v>113</v>
+      </c>
+      <c r="G129" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H129" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J129" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="14">
+        <v>1</v>
+      </c>
+      <c r="B130" s="14">
+        <v>214</v>
+      </c>
+      <c r="C130" s="17">
+        <v>1</v>
+      </c>
+      <c r="D130" s="17">
+        <v>0</v>
+      </c>
+      <c r="E130" s="17">
+        <v>9</v>
+      </c>
+      <c r="F130" s="17">
+        <v>114</v>
+      </c>
+      <c r="G130" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H130" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J130" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="14">
+        <v>1</v>
+      </c>
+      <c r="B131" s="14">
+        <v>215</v>
+      </c>
+      <c r="C131" s="17">
+        <v>1</v>
+      </c>
+      <c r="D131" s="17">
+        <v>0</v>
+      </c>
+      <c r="E131" s="17">
+        <v>9</v>
+      </c>
+      <c r="F131" s="17">
+        <v>115</v>
+      </c>
+      <c r="G131" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H131" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J131" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="14">
+        <v>1</v>
+      </c>
+      <c r="B132" s="14">
+        <v>216</v>
+      </c>
+      <c r="C132" s="17">
+        <v>1</v>
+      </c>
+      <c r="D132" s="17">
+        <v>0</v>
+      </c>
+      <c r="E132" s="17">
+        <v>9</v>
+      </c>
+      <c r="F132" s="17">
+        <v>116</v>
+      </c>
+      <c r="G132" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H132" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J132" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="14">
+        <v>1</v>
+      </c>
+      <c r="B133" s="14">
+        <v>217</v>
+      </c>
+      <c r="C133" s="17">
+        <v>1</v>
+      </c>
+      <c r="D133" s="17">
+        <v>0</v>
+      </c>
+      <c r="E133" s="17">
+        <v>9</v>
+      </c>
+      <c r="F133" s="17">
+        <v>117</v>
+      </c>
+      <c r="G133" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H133" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J133" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="14">
+        <v>1</v>
+      </c>
+      <c r="B134" s="14">
+        <v>218</v>
+      </c>
+      <c r="C134" s="17">
+        <v>1</v>
+      </c>
+      <c r="D134" s="17">
+        <v>0</v>
+      </c>
+      <c r="E134" s="17">
+        <v>9</v>
+      </c>
+      <c r="F134" s="17">
+        <v>118</v>
+      </c>
+      <c r="G134" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H134" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J134" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="14">
+        <v>1</v>
+      </c>
+      <c r="B135" s="14">
+        <v>219</v>
+      </c>
+      <c r="C135" s="17">
+        <v>1</v>
+      </c>
+      <c r="D135" s="17">
+        <v>0</v>
+      </c>
+      <c r="E135" s="17">
+        <v>9</v>
+      </c>
+      <c r="F135" s="17">
+        <v>119</v>
+      </c>
+      <c r="G135" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H135" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J135" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="14">
+        <v>1</v>
+      </c>
+      <c r="B136" s="14">
+        <v>220</v>
+      </c>
+      <c r="C136" s="17">
+        <v>1</v>
+      </c>
+      <c r="D136" s="17">
+        <v>0</v>
+      </c>
+      <c r="E136" s="17">
+        <v>9</v>
+      </c>
+      <c r="F136" s="17">
+        <v>120</v>
+      </c>
+      <c r="G136" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H136" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J136" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="14">
+        <v>1</v>
+      </c>
+      <c r="B137" s="14">
+        <v>221</v>
+      </c>
+      <c r="C137" s="17">
+        <v>1</v>
+      </c>
+      <c r="D137" s="17">
+        <v>0</v>
+      </c>
+      <c r="E137" s="17">
+        <v>9</v>
+      </c>
+      <c r="F137" s="17">
+        <v>121</v>
+      </c>
+      <c r="G137" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H137" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J137" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="14">
+        <v>1</v>
+      </c>
+      <c r="B138" s="14">
+        <v>222</v>
+      </c>
+      <c r="C138" s="17">
+        <v>1</v>
+      </c>
+      <c r="D138" s="17">
+        <v>0</v>
+      </c>
+      <c r="E138" s="17">
+        <v>9</v>
+      </c>
+      <c r="F138" s="17">
+        <v>122</v>
+      </c>
+      <c r="G138" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H138" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J138" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="14">
+        <v>1</v>
+      </c>
+      <c r="B139" s="14">
+        <v>223</v>
+      </c>
+      <c r="C139" s="17">
+        <v>1</v>
+      </c>
+      <c r="D139" s="17">
+        <v>0</v>
+      </c>
+      <c r="E139" s="17">
+        <v>9</v>
+      </c>
+      <c r="F139" s="17">
+        <v>123</v>
+      </c>
+      <c r="G139" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H139" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J139" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="14">
+        <v>1</v>
+      </c>
+      <c r="B140" s="14">
+        <v>224</v>
+      </c>
+      <c r="C140" s="17">
+        <v>1</v>
+      </c>
+      <c r="D140" s="17">
+        <v>0</v>
+      </c>
+      <c r="E140" s="17">
+        <v>9</v>
+      </c>
+      <c r="F140" s="17">
+        <v>124</v>
+      </c>
+      <c r="G140" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H140" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J140" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="14">
+        <v>1</v>
+      </c>
+      <c r="B141" s="14">
+        <v>225</v>
+      </c>
+      <c r="C141" s="17">
+        <v>1</v>
+      </c>
+      <c r="D141" s="17">
+        <v>0</v>
+      </c>
+      <c r="E141" s="17">
+        <v>9</v>
+      </c>
+      <c r="F141" s="17">
+        <v>125</v>
+      </c>
+      <c r="G141" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H141" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J141" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="14">
+        <v>1</v>
+      </c>
+      <c r="B142" s="14">
+        <v>226</v>
+      </c>
+      <c r="C142" s="17">
+        <v>1</v>
+      </c>
+      <c r="D142" s="17">
+        <v>0</v>
+      </c>
+      <c r="E142" s="17">
+        <v>9</v>
+      </c>
+      <c r="F142" s="17">
+        <v>126</v>
+      </c>
+      <c r="G142" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H142" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J142" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="14">
+        <v>1</v>
+      </c>
+      <c r="B143" s="14">
+        <v>227</v>
+      </c>
+      <c r="C143" s="17">
+        <v>1</v>
+      </c>
+      <c r="D143" s="17">
+        <v>0</v>
+      </c>
+      <c r="E143" s="17">
+        <v>9</v>
+      </c>
+      <c r="F143" s="17">
+        <v>127</v>
+      </c>
+      <c r="G143" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H143" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J143" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="14">
+        <v>1</v>
+      </c>
+      <c r="B144" s="14">
+        <v>228</v>
+      </c>
+      <c r="C144" s="17">
+        <v>1</v>
+      </c>
+      <c r="D144" s="17">
+        <v>0</v>
+      </c>
+      <c r="E144" s="17">
+        <v>9</v>
+      </c>
+      <c r="F144" s="17">
+        <v>128</v>
+      </c>
+      <c r="G144" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H144" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J144" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="14">
+        <v>1</v>
+      </c>
+      <c r="B145" s="14">
+        <v>229</v>
+      </c>
+      <c r="C145" s="17">
+        <v>1</v>
+      </c>
+      <c r="D145" s="17">
+        <v>0</v>
+      </c>
+      <c r="E145" s="17">
+        <v>9</v>
+      </c>
+      <c r="F145" s="17">
+        <v>129</v>
+      </c>
+      <c r="G145" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H145" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J145" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="14">
+        <v>1</v>
+      </c>
+      <c r="B146" s="14">
+        <v>230</v>
+      </c>
+      <c r="C146" s="17">
+        <v>1</v>
+      </c>
+      <c r="D146" s="17">
+        <v>0</v>
+      </c>
+      <c r="E146" s="17">
+        <v>9</v>
+      </c>
+      <c r="F146" s="17">
+        <v>130</v>
+      </c>
+      <c r="G146" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H146" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J146" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="14">
+        <v>1</v>
+      </c>
+      <c r="B147" s="14">
+        <v>231</v>
+      </c>
+      <c r="C147" s="17">
+        <v>1</v>
+      </c>
+      <c r="D147" s="17">
+        <v>0</v>
+      </c>
+      <c r="E147" s="17">
+        <v>9</v>
+      </c>
+      <c r="F147" s="17">
+        <v>131</v>
+      </c>
+      <c r="G147" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H147" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J147" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="14">
+        <v>1</v>
+      </c>
+      <c r="B148" s="14">
+        <v>232</v>
+      </c>
+      <c r="C148" s="17">
+        <v>1</v>
+      </c>
+      <c r="D148" s="17">
+        <v>0</v>
+      </c>
+      <c r="E148" s="17">
+        <v>9</v>
+      </c>
+      <c r="F148" s="17">
+        <v>132</v>
+      </c>
+      <c r="G148" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H148" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J148" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="14">
+        <v>1</v>
+      </c>
+      <c r="B149" s="14">
+        <v>233</v>
+      </c>
+      <c r="C149" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D149" s="17">
+        <v>0</v>
+      </c>
+      <c r="E149" s="17">
+        <v>11</v>
+      </c>
+      <c r="F149" s="17">
+        <v>1</v>
+      </c>
+      <c r="G149" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H149" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J149" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="14">
+        <v>1</v>
+      </c>
+      <c r="B150" s="14">
+        <v>234</v>
+      </c>
+      <c r="C150" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D150" s="17">
+        <v>0</v>
+      </c>
+      <c r="E150" s="17">
+        <v>11</v>
+      </c>
+      <c r="F150" s="17">
+        <v>2</v>
+      </c>
+      <c r="G150" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H150" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J150" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="14">
+        <v>1</v>
+      </c>
+      <c r="B151" s="14">
+        <v>235</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D151" s="17">
+        <v>0</v>
+      </c>
+      <c r="E151" s="17">
+        <v>11</v>
+      </c>
+      <c r="F151" s="17">
+        <v>3</v>
+      </c>
+      <c r="G151" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H151" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J151" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="14">
+        <v>1</v>
+      </c>
+      <c r="B152" s="14">
+        <v>236</v>
+      </c>
+      <c r="C152" s="17">
+        <v>1</v>
+      </c>
+      <c r="D152" s="17">
+        <v>0</v>
+      </c>
+      <c r="E152" s="17">
+        <v>12</v>
+      </c>
+      <c r="F152" s="17">
+        <v>1</v>
+      </c>
+      <c r="G152" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H152" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J152" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="14">
+        <v>1</v>
+      </c>
+      <c r="B153" s="14">
+        <v>237</v>
+      </c>
+      <c r="C153" s="17">
+        <v>1</v>
+      </c>
+      <c r="D153" s="17">
+        <v>0</v>
+      </c>
+      <c r="E153" s="17">
+        <v>12</v>
+      </c>
+      <c r="F153" s="31">
+        <v>2</v>
+      </c>
+      <c r="G153" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H153" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J153" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="14">
+        <v>1</v>
+      </c>
+      <c r="B154" s="14">
+        <v>238</v>
+      </c>
+      <c r="C154" s="17">
+        <v>1</v>
+      </c>
+      <c r="D154" s="17">
+        <v>0</v>
+      </c>
+      <c r="E154" s="17">
+        <v>12</v>
+      </c>
+      <c r="F154" s="31">
+        <v>3</v>
+      </c>
+      <c r="G154" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H154" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J154" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="14">
+        <v>1</v>
+      </c>
+      <c r="B155" s="14">
+        <v>239</v>
+      </c>
+      <c r="C155" s="17">
+        <v>1</v>
+      </c>
+      <c r="D155" s="17">
+        <v>0</v>
+      </c>
+      <c r="E155" s="17">
+        <v>12</v>
+      </c>
+      <c r="F155" s="31">
+        <v>4</v>
+      </c>
+      <c r="G155" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H155" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J155" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="14">
+        <v>1</v>
+      </c>
+      <c r="B156" s="14">
+        <v>240</v>
+      </c>
+      <c r="C156" s="17">
+        <v>1</v>
+      </c>
+      <c r="D156" s="17">
+        <v>0</v>
+      </c>
+      <c r="E156" s="17">
+        <v>12</v>
+      </c>
+      <c r="F156" s="31">
+        <v>5</v>
+      </c>
+      <c r="G156" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H156" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J156" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="14">
+        <v>1</v>
+      </c>
+      <c r="B157" s="14">
+        <v>241</v>
+      </c>
+      <c r="C157" s="17">
+        <v>1</v>
+      </c>
+      <c r="D157" s="17">
+        <v>0</v>
+      </c>
+      <c r="E157" s="17">
+        <v>12</v>
+      </c>
+      <c r="F157" s="31">
+        <v>6</v>
+      </c>
+      <c r="G157" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H157" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J157" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="14">
+        <v>1</v>
+      </c>
+      <c r="B158" s="14">
+        <v>242</v>
+      </c>
+      <c r="C158" s="17">
+        <v>1</v>
+      </c>
+      <c r="D158" s="17">
+        <v>0</v>
+      </c>
+      <c r="E158" s="17">
+        <v>12</v>
+      </c>
+      <c r="F158" s="31">
+        <v>7</v>
+      </c>
+      <c r="G158" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H158" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J158" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="14">
+        <v>1</v>
+      </c>
+      <c r="B159" s="14">
+        <v>243</v>
+      </c>
+      <c r="C159" s="17">
+        <v>1</v>
+      </c>
+      <c r="D159" s="17">
+        <v>0</v>
+      </c>
+      <c r="E159" s="17">
+        <v>12</v>
+      </c>
+      <c r="F159" s="31">
+        <v>8</v>
+      </c>
+      <c r="G159" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H159" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I159" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J159" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="14">
+        <v>1</v>
+      </c>
+      <c r="B160" s="14">
+        <v>244</v>
+      </c>
+      <c r="C160" s="17">
+        <v>1</v>
+      </c>
+      <c r="D160" s="17">
+        <v>0</v>
+      </c>
+      <c r="E160" s="17">
+        <v>12</v>
+      </c>
+      <c r="F160" s="31">
+        <v>9</v>
+      </c>
+      <c r="G160" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H160" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J160" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="17">
+        <v>1</v>
+      </c>
+      <c r="B161" s="17">
+        <v>10001</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D161" s="17">
+        <v>0</v>
+      </c>
+      <c r="E161" s="17">
+        <v>10</v>
+      </c>
+      <c r="F161" s="17">
+        <v>1</v>
+      </c>
+      <c r="G161" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H161" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J161" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="31">
+        <v>1</v>
+      </c>
+      <c r="B162" s="31">
+        <v>10002</v>
+      </c>
+      <c r="C162" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D162" s="17">
+        <v>0</v>
+      </c>
+      <c r="E162" s="17">
+        <v>10</v>
+      </c>
+      <c r="F162" s="31">
+        <v>2</v>
+      </c>
+      <c r="G162" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H162" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J162" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="31">
+        <v>1</v>
+      </c>
+      <c r="B163" s="31">
+        <v>10003</v>
+      </c>
+      <c r="C163" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D163" s="17">
+        <v>0</v>
+      </c>
+      <c r="E163" s="17">
+        <v>10</v>
+      </c>
+      <c r="F163" s="31">
+        <v>3</v>
+      </c>
+      <c r="G163" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H163" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J163" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="31">
+        <v>1</v>
+      </c>
+      <c r="B164" s="31">
+        <v>10004</v>
+      </c>
+      <c r="C164" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D164" s="17">
+        <v>0</v>
+      </c>
+      <c r="E164" s="17">
+        <v>10</v>
+      </c>
+      <c r="F164" s="31">
+        <v>4</v>
+      </c>
+      <c r="G164" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H164" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I164" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J164" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="31">
+        <v>1</v>
+      </c>
+      <c r="B165" s="31">
+        <v>10005</v>
+      </c>
+      <c r="C165" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D165" s="17">
+        <v>0</v>
+      </c>
+      <c r="E165" s="17">
+        <v>10</v>
+      </c>
+      <c r="F165" s="31">
+        <v>5</v>
+      </c>
+      <c r="G165" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H165" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J165" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="31">
+        <v>1</v>
+      </c>
+      <c r="B166" s="31">
+        <v>10006</v>
+      </c>
+      <c r="C166" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D166" s="17">
+        <v>0</v>
+      </c>
+      <c r="E166" s="17">
+        <v>10</v>
+      </c>
+      <c r="F166" s="31">
+        <v>6</v>
+      </c>
+      <c r="G166" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H166" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J166" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="31">
+        <v>1</v>
+      </c>
+      <c r="B167" s="31">
+        <v>10007</v>
+      </c>
+      <c r="C167" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D167" s="17">
+        <v>0</v>
+      </c>
+      <c r="E167" s="17">
+        <v>10</v>
+      </c>
+      <c r="F167" s="31">
+        <v>7</v>
+      </c>
+      <c r="G167" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H167" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J167" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="31">
+        <v>1</v>
+      </c>
+      <c r="B168" s="31">
+        <v>10008</v>
+      </c>
+      <c r="C168" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D168" s="17">
+        <v>0</v>
+      </c>
+      <c r="E168" s="17">
+        <v>10</v>
+      </c>
+      <c r="F168" s="31">
+        <v>8</v>
+      </c>
+      <c r="G168" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H168" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J168" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="31">
+        <v>1</v>
+      </c>
+      <c r="B169" s="31">
+        <v>10009</v>
+      </c>
+      <c r="C169" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D169" s="17">
+        <v>0</v>
+      </c>
+      <c r="E169" s="17">
+        <v>10</v>
+      </c>
+      <c r="F169" s="31">
+        <v>9</v>
+      </c>
+      <c r="G169" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H169" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J169" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="31">
+        <v>1</v>
+      </c>
+      <c r="B170" s="31">
+        <v>10010</v>
+      </c>
+      <c r="C170" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D170" s="17">
+        <v>0</v>
+      </c>
+      <c r="E170" s="17">
+        <v>10</v>
+      </c>
+      <c r="F170" s="31">
+        <v>10</v>
+      </c>
+      <c r="G170" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H170" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J170" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="31">
+        <v>1</v>
+      </c>
+      <c r="B171" s="31">
+        <v>10011</v>
+      </c>
+      <c r="C171" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D171" s="17">
+        <v>0</v>
+      </c>
+      <c r="E171" s="17">
+        <v>10</v>
+      </c>
+      <c r="F171" s="31">
+        <v>11</v>
+      </c>
+      <c r="G171" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H171" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J171" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="31">
+        <v>1</v>
+      </c>
+      <c r="B172" s="31">
+        <v>10012</v>
+      </c>
+      <c r="C172" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D172" s="17">
+        <v>0</v>
+      </c>
+      <c r="E172" s="17">
+        <v>10</v>
+      </c>
+      <c r="F172" s="31">
+        <v>12</v>
+      </c>
+      <c r="G172" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H172" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J172" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="31">
+        <v>1</v>
+      </c>
+      <c r="B173" s="31">
+        <v>10013</v>
+      </c>
+      <c r="C173" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D173" s="17">
+        <v>0</v>
+      </c>
+      <c r="E173" s="17">
+        <v>10</v>
+      </c>
+      <c r="F173" s="31">
+        <v>13</v>
+      </c>
+      <c r="G173" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H173" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J173" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="31">
+        <v>1</v>
+      </c>
+      <c r="B174" s="31">
+        <v>10014</v>
+      </c>
+      <c r="C174" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D174" s="17">
+        <v>0</v>
+      </c>
+      <c r="E174" s="17">
+        <v>10</v>
+      </c>
+      <c r="F174" s="31">
+        <v>14</v>
+      </c>
+      <c r="G174" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H174" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I174" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J174" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="31">
+        <v>1</v>
+      </c>
+      <c r="B175" s="31">
+        <v>10015</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D175" s="17">
+        <v>0</v>
+      </c>
+      <c r="E175" s="17">
+        <v>10</v>
+      </c>
+      <c r="F175" s="31">
+        <v>15</v>
+      </c>
+      <c r="G175" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H175" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J175" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="31">
+        <v>1</v>
+      </c>
+      <c r="B176" s="31">
+        <v>10016</v>
+      </c>
+      <c r="C176" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D176" s="17">
+        <v>0</v>
+      </c>
+      <c r="E176" s="17">
+        <v>10</v>
+      </c>
+      <c r="F176" s="31">
+        <v>16</v>
+      </c>
+      <c r="G176" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H176" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I176" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J176" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="31">
+        <v>1</v>
+      </c>
+      <c r="B177" s="31">
+        <v>10017</v>
+      </c>
+      <c r="C177" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D177" s="17">
+        <v>0</v>
+      </c>
+      <c r="E177" s="17">
+        <v>10</v>
+      </c>
+      <c r="F177" s="31">
+        <v>17</v>
+      </c>
+      <c r="G177" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H177" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I177" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J177" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="31">
+        <v>1</v>
+      </c>
+      <c r="B178" s="31">
+        <v>10018</v>
+      </c>
+      <c r="C178" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D178" s="17">
+        <v>0</v>
+      </c>
+      <c r="E178" s="17">
+        <v>10</v>
+      </c>
+      <c r="F178" s="31">
+        <v>18</v>
+      </c>
+      <c r="G178" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H178" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J178" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="31">
+        <v>1</v>
+      </c>
+      <c r="B179" s="31">
+        <v>10019</v>
+      </c>
+      <c r="C179" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D179" s="17">
+        <v>0</v>
+      </c>
+      <c r="E179" s="17">
+        <v>10</v>
+      </c>
+      <c r="F179" s="31">
+        <v>19</v>
+      </c>
+      <c r="G179" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H179" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I179" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J179" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="31">
+        <v>1</v>
+      </c>
+      <c r="B180" s="31">
+        <v>10020</v>
+      </c>
+      <c r="C180" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D180" s="17">
+        <v>0</v>
+      </c>
+      <c r="E180" s="17">
+        <v>10</v>
+      </c>
+      <c r="F180" s="31">
+        <v>20</v>
+      </c>
+      <c r="G180" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H180" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I180" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J180" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" s="31">
+        <v>1</v>
+      </c>
+      <c r="B181" s="31">
+        <v>10021</v>
+      </c>
+      <c r="C181" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D181" s="17">
+        <v>0</v>
+      </c>
+      <c r="E181" s="17">
+        <v>10</v>
+      </c>
+      <c r="F181" s="31">
+        <v>21</v>
+      </c>
+      <c r="G181" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H181" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I181" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J181" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="31">
+        <v>1</v>
+      </c>
+      <c r="B182" s="31">
+        <v>10022</v>
+      </c>
+      <c r="C182" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D182" s="17">
+        <v>0</v>
+      </c>
+      <c r="E182" s="17">
+        <v>10</v>
+      </c>
+      <c r="F182" s="31">
+        <v>22</v>
+      </c>
+      <c r="G182" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H182" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I182" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J182" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="31">
+        <v>1</v>
+      </c>
+      <c r="B183" s="31">
+        <v>10023</v>
+      </c>
+      <c r="C183" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D183" s="17">
+        <v>0</v>
+      </c>
+      <c r="E183" s="17">
+        <v>10</v>
+      </c>
+      <c r="F183" s="31">
+        <v>23</v>
+      </c>
+      <c r="G183" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H183" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J183" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="31">
+        <v>1</v>
+      </c>
+      <c r="B184" s="31">
+        <v>10024</v>
+      </c>
+      <c r="C184" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D184" s="17">
+        <v>0</v>
+      </c>
+      <c r="E184" s="17">
+        <v>10</v>
+      </c>
+      <c r="F184" s="31">
+        <v>24</v>
+      </c>
+      <c r="G184" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H184" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J184" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="31">
+        <v>1</v>
+      </c>
+      <c r="B185" s="31">
+        <v>10025</v>
+      </c>
+      <c r="C185" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D185" s="17">
+        <v>0</v>
+      </c>
+      <c r="E185" s="17">
+        <v>10</v>
+      </c>
+      <c r="F185" s="31">
+        <v>25</v>
+      </c>
+      <c r="G185" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H185" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J185" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="31">
+        <v>1</v>
+      </c>
+      <c r="B186" s="31">
+        <v>10026</v>
+      </c>
+      <c r="C186" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D186" s="17">
+        <v>0</v>
+      </c>
+      <c r="E186" s="17">
+        <v>10</v>
+      </c>
+      <c r="F186" s="31">
+        <v>26</v>
+      </c>
+      <c r="G186" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H186" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I186" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J186" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="31">
+        <v>1</v>
+      </c>
+      <c r="B187" s="31">
+        <v>10027</v>
+      </c>
+      <c r="C187" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D187" s="17">
+        <v>0</v>
+      </c>
+      <c r="E187" s="17">
+        <v>10</v>
+      </c>
+      <c r="F187" s="31">
+        <v>27</v>
+      </c>
+      <c r="G187" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H187" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I187" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J187" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" s="31">
+        <v>1</v>
+      </c>
+      <c r="B188" s="31">
+        <v>10028</v>
+      </c>
+      <c r="C188" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D188" s="17">
+        <v>0</v>
+      </c>
+      <c r="E188" s="17">
+        <v>10</v>
+      </c>
+      <c r="F188" s="31">
+        <v>28</v>
+      </c>
+      <c r="G188" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H188" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I188" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J188" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" s="31">
+        <v>1</v>
+      </c>
+      <c r="B189" s="31">
+        <v>10029</v>
+      </c>
+      <c r="C189" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D189" s="17">
+        <v>0</v>
+      </c>
+      <c r="E189" s="17">
+        <v>10</v>
+      </c>
+      <c r="F189" s="31">
+        <v>29</v>
+      </c>
+      <c r="G189" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H189" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I189" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J189" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="31">
+        <v>1</v>
+      </c>
+      <c r="B190" s="31">
+        <v>10030</v>
+      </c>
+      <c r="C190" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D190" s="17">
+        <v>0</v>
+      </c>
+      <c r="E190" s="17">
+        <v>10</v>
+      </c>
+      <c r="F190" s="31">
+        <v>30</v>
+      </c>
+      <c r="G190" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H190" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I190" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J190" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" s="31">
+        <v>1</v>
+      </c>
+      <c r="B191" s="31">
+        <v>10031</v>
+      </c>
+      <c r="C191" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D191" s="17">
+        <v>0</v>
+      </c>
+      <c r="E191" s="17">
+        <v>10</v>
+      </c>
+      <c r="F191" s="31">
+        <v>31</v>
+      </c>
+      <c r="G191" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H191" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I191" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J191" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" s="31">
+        <v>1</v>
+      </c>
+      <c r="B192" s="31">
+        <v>10032</v>
+      </c>
+      <c r="C192" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D192" s="17">
+        <v>0</v>
+      </c>
+      <c r="E192" s="17">
+        <v>10</v>
+      </c>
+      <c r="F192" s="31">
+        <v>32</v>
+      </c>
+      <c r="G192" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H192" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I192" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J192" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" s="31">
+        <v>1</v>
+      </c>
+      <c r="B193" s="31">
+        <v>10033</v>
+      </c>
+      <c r="C193" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D193" s="17">
+        <v>0</v>
+      </c>
+      <c r="E193" s="17">
+        <v>10</v>
+      </c>
+      <c r="F193" s="31">
+        <v>33</v>
+      </c>
+      <c r="G193" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H193" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I193" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J193" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" s="31">
+        <v>1</v>
+      </c>
+      <c r="B194" s="31">
+        <v>10034</v>
+      </c>
+      <c r="C194" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D194" s="17">
+        <v>0</v>
+      </c>
+      <c r="E194" s="17">
+        <v>10</v>
+      </c>
+      <c r="F194" s="31">
+        <v>34</v>
+      </c>
+      <c r="G194" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H194" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J194" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" s="31">
+        <v>1</v>
+      </c>
+      <c r="B195" s="31">
+        <v>10035</v>
+      </c>
+      <c r="C195" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D195" s="17">
+        <v>0</v>
+      </c>
+      <c r="E195" s="17">
+        <v>10</v>
+      </c>
+      <c r="F195" s="31">
+        <v>35</v>
+      </c>
+      <c r="G195" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H195" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I195" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J195" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" s="31">
+        <v>1</v>
+      </c>
+      <c r="B196" s="31">
+        <v>10036</v>
+      </c>
+      <c r="C196" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D196" s="17">
+        <v>0</v>
+      </c>
+      <c r="E196" s="17">
+        <v>10</v>
+      </c>
+      <c r="F196" s="31">
+        <v>36</v>
+      </c>
+      <c r="G196" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H196" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I196" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J196" s="14">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2301,123 +8747,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="7" width="19.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="99.75" spans="1:5">
-      <c r="A1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11">
-        <v>2</v>
-      </c>
-      <c r="E2" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="29">
-        <v>2</v>
-      </c>
-      <c r="B5" s="29">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
-      <formula1>数据类型!$B$2:$B$56</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H10"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2426,48 +8762,55 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="24.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="17.8583333333333" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.8583333333333" customWidth="1"/>
-    <col min="7" max="7" width="29.2416666666667" customWidth="1"/>
-    <col min="8" max="8" width="46.1916666666667" customWidth="1"/>
-    <col min="9" max="10" width="24.7833333333333" customWidth="1"/>
+    <col min="5" max="6" width="17.8583333333333" style="17" customWidth="1"/>
+    <col min="7" max="7" width="17.8583333333333" customWidth="1"/>
+    <col min="8" max="8" width="20.0666666666667" customWidth="1"/>
+    <col min="9" max="9" width="29.2416666666667" customWidth="1"/>
+    <col min="10" max="10" width="46.1916666666667" customWidth="1"/>
+    <col min="11" max="12" width="24.7833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="142.5" spans="1:10">
+    <row r="1" ht="142.5" spans="1:12">
       <c r="A1" s="18" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>64</v>
+        <v>117</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>67</v>
+        <v>119</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:10">
+        <v>122</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:12">
       <c r="A2" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -2481,7 +8824,7 @@
       <c r="E2" s="20">
         <v>2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="20">
         <v>2</v>
       </c>
       <c r="G2" s="11">
@@ -2493,336 +8836,558 @@
       <c r="I2" s="11">
         <v>2</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2</v>
+      </c>
+      <c r="L2" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:10">
+    <row r="3" ht="14.25" spans="1:12">
       <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:12">
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:12">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:12">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:12">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" s="15" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="C10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="D10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" s="15" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="D11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" s="15" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:10">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="D12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21">
+        <v>2</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" s="15" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21">
+        <v>2</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" s="15" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" s="15" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="19" ht="14.25" spans="3:4">
+      <c r="C19" s="22"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:12">
+      <c r="A20" s="3">
+        <v>0</v>
+      </c>
+      <c r="B20" s="23">
+        <v>8</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="23">
+        <v>100</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23">
+        <v>0</v>
+      </c>
+      <c r="J20" s="23">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" s="16" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="25">
+        <v>9</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27">
+        <v>1</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25">
+        <v>0</v>
+      </c>
+      <c r="J21" s="25">
+        <v>1</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="3">
+        <v>0</v>
+      </c>
+      <c r="B22" s="17">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:10">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>100</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:10">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:10">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:10">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" s="15" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="21">
-        <v>5</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:10">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="22">
-        <v>6</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22">
-        <v>100</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" s="16" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A11" s="24">
-        <v>2</v>
-      </c>
-      <c r="B11" s="24">
-        <v>7</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="26">
-        <v>1</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <v>1</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="4:6">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" ht="14.25" spans="3:4">
-      <c r="C13" s="27"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="27"/>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="27"/>
-    </row>
-    <row r="16" ht="14.25" spans="3:4">
-      <c r="C16" s="27"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="27"/>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="27"/>
-    </row>
-    <row r="19" ht="14.25" spans="3:4">
-      <c r="C19" s="27"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="27"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="27"/>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" ht="14.25" spans="3:4">
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" ht="14.25" spans="3:4">
+      <c r="C24" s="22"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" ht="14.25" spans="3:4">
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" ht="14.25" spans="3:4">
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" ht="14.25" spans="3:4">
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:E4 F4:F5">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2837,8 +9402,8 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2853,27 +9418,27 @@
   <sheetData>
     <row r="1" ht="111" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -2893,42 +9458,42 @@
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="14.25" spans="1:6">
@@ -3215,6 +9780,388 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="111" customHeight="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>13</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>14</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>15</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">
+      <formula1>数据类型!$B$2:$B$56</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E38"/>
@@ -3233,19 +10180,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3253,16 +10200,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3270,16 +10217,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3287,16 +10234,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3304,16 +10251,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3321,16 +10268,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3338,14 +10285,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3353,16 +10300,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3370,16 +10317,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3387,16 +10334,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3404,16 +10351,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3421,16 +10368,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3438,13 +10385,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3452,10 +10399,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3463,10 +10410,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3474,10 +10421,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3485,10 +10432,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3496,10 +10443,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3507,10 +10454,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3518,10 +10465,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3529,10 +10476,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3540,10 +10487,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3551,10 +10498,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3562,10 +10509,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3573,10 +10520,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3584,16 +10531,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3601,16 +10548,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3618,16 +10565,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3635,16 +10582,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3652,13 +10599,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3666,16 +10613,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3683,16 +10630,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3700,16 +10647,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3717,16 +10664,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3734,16 +10681,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3751,14 +10698,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3766,11 +10713,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3778,16 +10725,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
